--- a/BackTest/2020-01-16 BackTest ETC.xlsx
+++ b/BackTest/2020-01-16 BackTest ETC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -682,10 +682,14 @@
         <v>7675.803453472079</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6935</v>
+      </c>
+      <c r="J9" t="n">
+        <v>6935</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -715,11 +719,19 @@
         <v>7029.232353472079</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>7105</v>
+      </c>
+      <c r="J10" t="n">
+        <v>6935</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,15 +760,17 @@
         <v>10381.32125347208</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>7000</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>6935</v>
+      </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -791,11 +805,7 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -828,11 +838,7 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -865,11 +871,7 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -902,11 +904,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -939,11 +937,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -976,11 +970,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1013,11 +1003,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1046,13 +1032,15 @@
         <v>10343.95490860639</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>7070</v>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -1083,9 +1071,11 @@
         <v>10442.56140860639</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>7050</v>
+      </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
@@ -1120,7 +1110,7 @@
         <v>9436.735508606393</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>7110</v>
@@ -1159,7 +1149,7 @@
         <v>9319.615608606393</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>7090</v>
@@ -1198,7 +1188,7 @@
         <v>10524.73450860639</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>7045</v>
@@ -1496,9 +1486,11 @@
         <v>7570.195668923855</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>6965</v>
+      </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
@@ -1533,9 +1525,11 @@
         <v>6798.780168923855</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>6925</v>
+      </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
@@ -1570,9 +1564,11 @@
         <v>5826.255968923855</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>6915</v>
+      </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
@@ -1607,7 +1603,7 @@
         <v>4488.524150598873</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>6910</v>
@@ -1646,7 +1642,7 @@
         <v>5266.095150598873</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>6885</v>
@@ -1685,7 +1681,7 @@
         <v>5728.409650598874</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>6920</v>
@@ -1724,7 +1720,7 @@
         <v>6501.709650598874</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>6950</v>
@@ -1763,7 +1759,7 @@
         <v>6152.693650598874</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>6970</v>
@@ -1802,7 +1798,7 @@
         <v>5608.579550598874</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>6955</v>
@@ -1841,7 +1837,7 @@
         <v>5807.702850598875</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>6930</v>
@@ -1880,9 +1876,11 @@
         <v>6316.339850598874</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>6975</v>
+      </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
@@ -1917,7 +1915,7 @@
         <v>6625.839850598874</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>6990</v>
@@ -1956,7 +1954,7 @@
         <v>6606.735150598874</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>7000</v>
@@ -1995,7 +1993,7 @@
         <v>6709.899150598874</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>6990</v>
@@ -2034,7 +2032,7 @@
         <v>7025.488250598874</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>7030</v>
@@ -2073,9 +2071,11 @@
         <v>7025.488250598874</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>7050</v>
+      </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -2110,9 +2110,11 @@
         <v>7197.486350598874</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>7050</v>
+      </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -2147,9 +2149,11 @@
         <v>6914.466950598874</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>7090</v>
+      </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
@@ -2221,9 +2225,11 @@
         <v>8627.693639252855</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>7070</v>
+      </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
@@ -6032,9 +6038,11 @@
         <v>11893.27101663454</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>7180</v>
+      </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
@@ -6106,9 +6114,11 @@
         <v>12121.47651663454</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>7170</v>
+      </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
@@ -6883,11 +6893,9 @@
         <v>11529.97161663455</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
-      </c>
-      <c r="I176" t="n">
-        <v>7115</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
@@ -6922,11 +6930,9 @@
         <v>11529.97161663455</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
-      </c>
-      <c r="I177" t="n">
-        <v>7090</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
@@ -6961,11 +6967,9 @@
         <v>11529.97161663455</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
-      </c>
-      <c r="I178" t="n">
-        <v>7090</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
@@ -7000,11 +7004,9 @@
         <v>11474.02231663455</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
-      </c>
-      <c r="I179" t="n">
-        <v>7090</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
@@ -7039,7 +7041,7 @@
         <v>11432.26751663455</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180" t="n">
         <v>7070</v>
@@ -7078,7 +7080,7 @@
         <v>11861.66751663454</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I181" t="n">
         <v>7060</v>
@@ -7117,7 +7119,7 @@
         <v>11738.32981663454</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
         <v>7125</v>
@@ -7156,7 +7158,7 @@
         <v>11548.82321663454</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183" t="n">
         <v>7120</v>
@@ -7195,7 +7197,7 @@
         <v>11662.62321663454</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
         <v>7100</v>
@@ -7234,11 +7236,9 @@
         <v>11775.32321663454</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
-      </c>
-      <c r="I185" t="n">
-        <v>7120</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
@@ -7273,11 +7273,9 @@
         <v>11921.55751663454</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
-      </c>
-      <c r="I186" t="n">
-        <v>7125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
@@ -7312,11 +7310,9 @@
         <v>11820.65751663454</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
-      </c>
-      <c r="I187" t="n">
-        <v>7145</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
@@ -7351,11 +7347,9 @@
         <v>11820.65751663454</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
-      </c>
-      <c r="I188" t="n">
-        <v>7130</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
@@ -7390,11 +7384,9 @@
         <v>11188.15911663454</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
-      </c>
-      <c r="I189" t="n">
-        <v>7130</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
@@ -7429,11 +7421,9 @@
         <v>11307.58911663454</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
-      </c>
-      <c r="I190" t="n">
-        <v>7125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
@@ -7468,11 +7458,9 @@
         <v>11407.58911663454</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
-      </c>
-      <c r="I191" t="n">
-        <v>7145</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
@@ -7507,11 +7495,9 @@
         <v>11612.58001663455</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
-      </c>
-      <c r="I192" t="n">
-        <v>7150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
@@ -7546,11 +7532,9 @@
         <v>11856.24741663455</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
-      </c>
-      <c r="I193" t="n">
-        <v>7180</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
@@ -7733,11 +7717,9 @@
         <v>13710.55691663454</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
-      </c>
-      <c r="I198" t="n">
-        <v>7215</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
@@ -7772,11 +7754,9 @@
         <v>13597.15691663455</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
-      </c>
-      <c r="I199" t="n">
-        <v>7245</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
@@ -7811,11 +7791,9 @@
         <v>13667.22571663454</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
-      </c>
-      <c r="I200" t="n">
-        <v>7215</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
@@ -7850,11 +7828,9 @@
         <v>13895.41241663454</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
-      </c>
-      <c r="I201" t="n">
-        <v>7220</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
@@ -7889,11 +7865,9 @@
         <v>13778.15061663454</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
-      </c>
-      <c r="I202" t="n">
-        <v>7240</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
@@ -7928,11 +7902,9 @@
         <v>14093.16621663454</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
-      </c>
-      <c r="I203" t="n">
-        <v>7210</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
@@ -7967,11 +7939,9 @@
         <v>13987.36621663455</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
-      </c>
-      <c r="I204" t="n">
-        <v>7240</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
@@ -8006,11 +7976,9 @@
         <v>13618.49261663454</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
-      </c>
-      <c r="I205" t="n">
-        <v>7215</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
@@ -8045,11 +8013,9 @@
         <v>13736.09261663455</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
-      </c>
-      <c r="I206" t="n">
-        <v>7160</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
@@ -8084,11 +8050,9 @@
         <v>13938.09261663455</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
-      </c>
-      <c r="I207" t="n">
-        <v>7180</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
@@ -8123,11 +8087,9 @@
         <v>13825.29261663455</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
-      </c>
-      <c r="I208" t="n">
-        <v>7190</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
@@ -8162,11 +8124,9 @@
         <v>14256.45181663455</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
-      </c>
-      <c r="I209" t="n">
-        <v>7160</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
@@ -8201,11 +8161,9 @@
         <v>14256.45181663455</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
-      </c>
-      <c r="I210" t="n">
-        <v>7210</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
@@ -8240,11 +8198,9 @@
         <v>14236.70741663455</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
-      </c>
-      <c r="I211" t="n">
-        <v>7210</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
@@ -8279,11 +8235,9 @@
         <v>14236.70741663455</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
-      </c>
-      <c r="I212" t="n">
-        <v>7195</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
@@ -8318,11 +8272,9 @@
         <v>14481.80151663455</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
-      </c>
-      <c r="I213" t="n">
-        <v>7195</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
@@ -8357,11 +8309,9 @@
         <v>14282.80151663455</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
-      </c>
-      <c r="I214" t="n">
-        <v>7220</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
@@ -8655,7 +8605,7 @@
         <v>13083.76111663455</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I222" t="n">
         <v>7105</v>
@@ -8694,7 +8644,7 @@
         <v>13083.76111663455</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I223" t="n">
         <v>7090</v>
@@ -8733,7 +8683,7 @@
         <v>12799.56881663455</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I224" t="n">
         <v>7090</v>
@@ -8772,7 +8722,7 @@
         <v>13059.01491663455</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I225" t="n">
         <v>7085</v>
@@ -8811,7 +8761,7 @@
         <v>13156.82281663455</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I226" t="n">
         <v>7095</v>
@@ -8850,7 +8800,7 @@
         <v>13192.24861663455</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I227" t="n">
         <v>7105</v>
@@ -8889,7 +8839,7 @@
         <v>12982.75561663455</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I228" t="n">
         <v>7120</v>
@@ -8928,7 +8878,7 @@
         <v>12982.75561663455</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I229" t="n">
         <v>7055</v>
@@ -8967,7 +8917,7 @@
         <v>13010.66971663455</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I230" t="n">
         <v>7055</v>
@@ -9006,7 +8956,7 @@
         <v>13018.49451663455</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I231" t="n">
         <v>7085</v>
@@ -9045,7 +8995,7 @@
         <v>13155.99451663455</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I232" t="n">
         <v>7090</v>
@@ -9084,7 +9034,7 @@
         <v>13155.99451663455</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I233" t="n">
         <v>7095</v>
@@ -9123,7 +9073,7 @@
         <v>13157.99451663455</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I234" t="n">
         <v>7095</v>
@@ -9162,7 +9112,7 @@
         <v>13295.61931663455</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I235" t="n">
         <v>7100</v>
@@ -9201,7 +9151,7 @@
         <v>13295.61931663455</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I236" t="n">
         <v>7105</v>
@@ -9240,7 +9190,7 @@
         <v>13279.61931663455</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I237" t="n">
         <v>7105</v>
@@ -9279,7 +9229,7 @@
         <v>13381.61931663455</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I238" t="n">
         <v>7095</v>
@@ -9318,7 +9268,7 @@
         <v>13386.31931663455</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I239" t="n">
         <v>7110</v>
@@ -9357,7 +9307,7 @@
         <v>13386.38931663455</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I240" t="n">
         <v>7145</v>
@@ -9396,7 +9346,7 @@
         <v>13428.76781663455</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I241" t="n">
         <v>7155</v>
@@ -9435,11 +9385,9 @@
         <v>13288.85571663455</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
-      </c>
-      <c r="I242" t="n">
-        <v>7160</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
@@ -9474,11 +9422,9 @@
         <v>13550.88491663455</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
-      </c>
-      <c r="I243" t="n">
-        <v>7140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
@@ -9513,11 +9459,9 @@
         <v>13546.81181663455</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
-      </c>
-      <c r="I244" t="n">
-        <v>7145</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
@@ -9552,11 +9496,9 @@
         <v>13446.01321663455</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
-      </c>
-      <c r="I245" t="n">
-        <v>7140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
@@ -9591,11 +9533,9 @@
         <v>13371.75761663455</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
-      </c>
-      <c r="I246" t="n">
-        <v>7120</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
@@ -9630,7 +9570,7 @@
         <v>13577.75761663455</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I247" t="n">
         <v>7080</v>
@@ -9669,7 +9609,7 @@
         <v>13567.95761663455</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I248" t="n">
         <v>7125</v>
@@ -9708,7 +9648,7 @@
         <v>13743.61811663455</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I249" t="n">
         <v>7110</v>
@@ -9747,7 +9687,7 @@
         <v>13743.61811663455</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I250" t="n">
         <v>7135</v>
@@ -9786,7 +9726,7 @@
         <v>13761.22771663455</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I251" t="n">
         <v>7135</v>
@@ -9825,7 +9765,7 @@
         <v>13782.15111663455</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I252" t="n">
         <v>7175</v>
@@ -9864,11 +9804,9 @@
         <v>13755.34741663455</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
-      </c>
-      <c r="I253" t="n">
-        <v>7200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
@@ -9903,11 +9841,9 @@
         <v>13855.34741663455</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
-      </c>
-      <c r="I254" t="n">
-        <v>7195</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
@@ -9942,11 +9878,9 @@
         <v>13813.54741663455</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
-      </c>
-      <c r="I255" t="n">
-        <v>7205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
@@ -9981,11 +9915,9 @@
         <v>13808.64741663455</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
-      </c>
-      <c r="I256" t="n">
-        <v>7195</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
@@ -10020,11 +9952,9 @@
         <v>13584.41301663455</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
-      </c>
-      <c r="I257" t="n">
-        <v>7185</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
@@ -10059,11 +9989,9 @@
         <v>13211.26371663455</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
-      </c>
-      <c r="I258" t="n">
-        <v>7130</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
@@ -10098,11 +10026,9 @@
         <v>13318.70931663455</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
-      </c>
-      <c r="I259" t="n">
-        <v>7110</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
@@ -10137,11 +10063,9 @@
         <v>13649.70931663455</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
-      </c>
-      <c r="I260" t="n">
-        <v>7170</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
@@ -10213,11 +10137,9 @@
         <v>13537.91761663455</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
-      </c>
-      <c r="I262" t="n">
-        <v>7180</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
@@ -10363,11 +10285,9 @@
         <v>13739.01713068184</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
-      </c>
-      <c r="I266" t="n">
-        <v>7175</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
@@ -10439,7 +10359,7 @@
         <v>13217.01813068184</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I268" t="n">
         <v>7175</v>
@@ -10478,7 +10398,7 @@
         <v>13207.66953068184</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I269" t="n">
         <v>7210</v>
@@ -10517,11 +10437,9 @@
         <v>13064.87223068184</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
-      </c>
-      <c r="I270" t="n">
-        <v>7190</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
@@ -10556,7 +10474,7 @@
         <v>13164.87223068184</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I271" t="n">
         <v>7185</v>
@@ -10595,11 +10513,9 @@
         <v>13538.22943068184</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
-      </c>
-      <c r="I272" t="n">
-        <v>7200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
@@ -10634,7 +10550,7 @@
         <v>12981.83013068184</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I273" t="n">
         <v>7215</v>
@@ -10673,7 +10589,7 @@
         <v>12749.46083068184</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I274" t="n">
         <v>7200</v>
@@ -10712,7 +10628,7 @@
         <v>13146.56423068184</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I275" t="n">
         <v>7175</v>
@@ -10751,7 +10667,7 @@
         <v>13141.81263068184</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I276" t="n">
         <v>7195</v>
@@ -10790,7 +10706,7 @@
         <v>13148.71263068184</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I277" t="n">
         <v>7150</v>
@@ -10829,7 +10745,7 @@
         <v>13148.71263068184</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I278" t="n">
         <v>7175</v>
@@ -10868,7 +10784,7 @@
         <v>13047.99703068184</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I279" t="n">
         <v>7175</v>
@@ -10907,7 +10823,7 @@
         <v>12857.99703068184</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I280" t="n">
         <v>7155</v>
@@ -10946,7 +10862,7 @@
         <v>12599.61153068184</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I281" t="n">
         <v>7150</v>
@@ -10985,7 +10901,7 @@
         <v>12713.38913068184</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I282" t="n">
         <v>7140</v>
@@ -11024,7 +10940,7 @@
         <v>12990.82773068184</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I283" t="n">
         <v>7170</v>
@@ -11063,7 +10979,7 @@
         <v>13018.05983068184</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I284" t="n">
         <v>7175</v>
@@ -11102,7 +11018,7 @@
         <v>13003.68623068184</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I285" t="n">
         <v>7205</v>
@@ -11141,7 +11057,7 @@
         <v>13003.68623068184</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I286" t="n">
         <v>7200</v>
@@ -11180,7 +11096,7 @@
         <v>13003.68623068184</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I287" t="n">
         <v>7200</v>
@@ -11219,11 +11135,9 @@
         <v>13011.37653068184</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
-      </c>
-      <c r="I288" t="n">
-        <v>7200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
@@ -11258,11 +11172,9 @@
         <v>12984.55003068184</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
-      </c>
-      <c r="I289" t="n">
-        <v>7220</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
@@ -11297,11 +11209,9 @@
         <v>13009.87803068184</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
-      </c>
-      <c r="I290" t="n">
-        <v>7180</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
@@ -11336,11 +11246,9 @@
         <v>13011.47803068184</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
-      </c>
-      <c r="I291" t="n">
-        <v>7215</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
@@ -11560,11 +11468,9 @@
         <v>12907.79703068184</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
-      </c>
-      <c r="I297" t="n">
-        <v>7245</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
@@ -11932,11 +11838,9 @@
         <v>13258.31003068183</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
-      </c>
-      <c r="I307" t="n">
-        <v>7245</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
@@ -12119,11 +12023,9 @@
         <v>12555.41242546563</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
-      </c>
-      <c r="I312" t="n">
-        <v>7265</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
@@ -16635,7 +16537,7 @@
         <v>42558.02650338311</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -16672,7 +16574,7 @@
         <v>40573.62880338311</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -16709,7 +16611,7 @@
         <v>39451.89240338311</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -16746,7 +16648,7 @@
         <v>39091.97010338311</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -16783,7 +16685,7 @@
         <v>39064.1894033831</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16820,7 +16722,7 @@
         <v>39415.58760338311</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -16857,7 +16759,7 @@
         <v>41556.74140338311</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -16894,7 +16796,7 @@
         <v>38800.67535044193</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16931,7 +16833,7 @@
         <v>39288.89485044193</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16968,7 +16870,7 @@
         <v>38859.54725044193</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -19484,18 +19386,16 @@
         <v>50257.96331842484</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L511" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L511" t="inlineStr"/>
       <c r="M511" t="inlineStr"/>
     </row>
     <row r="512">
@@ -19525,11 +19425,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -19562,11 +19458,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -19599,11 +19491,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -19636,11 +19524,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -19673,11 +19557,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -19710,11 +19590,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -19747,11 +19623,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -19780,15 +19652,11 @@
         <v>51854.02445218877</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -19817,15 +19685,11 @@
         <v>52519.87375218877</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -19854,15 +19718,11 @@
         <v>54160.87841740617</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -19891,15 +19751,11 @@
         <v>52834.25768716958</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -19928,15 +19784,11 @@
         <v>52837.75668716958</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -19965,15 +19817,11 @@
         <v>52337.69718716958</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -20002,15 +19850,11 @@
         <v>52424.83828716958</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -20039,15 +19883,11 @@
         <v>52410.23128716958</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -20076,15 +19916,11 @@
         <v>52426.18128716957</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -20113,15 +19949,11 @@
         <v>51621.90718716957</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -20150,15 +19982,11 @@
         <v>51894.87968716957</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -20187,15 +20015,11 @@
         <v>52353.07968716957</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -20224,15 +20048,11 @@
         <v>52134.90808716957</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -20261,15 +20081,11 @@
         <v>52134.90808716957</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -20298,15 +20114,11 @@
         <v>51504.0359751509</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -20335,15 +20147,11 @@
         <v>51124.9695751509</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -20372,15 +20180,11 @@
         <v>50818.1151751509</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -20409,15 +20213,11 @@
         <v>50305.8841751509</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -20446,15 +20246,11 @@
         <v>50221.7468751509</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -20483,15 +20279,11 @@
         <v>49625.0791751509</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -20520,15 +20312,11 @@
         <v>50156.84706875462</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -20557,15 +20345,11 @@
         <v>49768.54563384617</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -20594,15 +20378,11 @@
         <v>48619.10663384618</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -20631,15 +20411,11 @@
         <v>48572.97503384617</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -20668,15 +20444,11 @@
         <v>49015.10443384617</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -20705,15 +20477,11 @@
         <v>48925.59563384617</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -20742,15 +20510,11 @@
         <v>48925.59563384617</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -20779,15 +20543,11 @@
         <v>49129.59283384617</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -20816,15 +20576,11 @@
         <v>46942.10873384617</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -20853,15 +20609,11 @@
         <v>48929.93653384616</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -20890,15 +20642,11 @@
         <v>49316.29363384617</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -20927,15 +20675,11 @@
         <v>49525.24813384617</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -20964,15 +20708,11 @@
         <v>49838.49343384617</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -21001,15 +20741,11 @@
         <v>49629.65713384617</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -21038,15 +20774,11 @@
         <v>49413.36843384617</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -21075,15 +20807,11 @@
         <v>49667.03483384617</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -21116,11 +20844,7 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -21149,15 +20873,11 @@
         <v>50045.08543384617</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -21186,15 +20906,11 @@
         <v>49386.80853384618</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -21223,15 +20939,11 @@
         <v>48864.04903384618</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -21260,15 +20972,11 @@
         <v>49246.81213384617</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -21297,15 +21005,11 @@
         <v>49824.60013384617</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -21334,15 +21038,11 @@
         <v>49680.98863384617</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -21371,15 +21071,11 @@
         <v>49898.55713384617</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -21408,15 +21104,11 @@
         <v>49452.78863384618</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -21445,15 +21137,11 @@
         <v>51146.88023384618</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -21482,15 +21170,11 @@
         <v>51353.08023384617</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -21519,15 +21203,11 @@
         <v>51009.59563384617</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -21556,15 +21236,11 @@
         <v>51556.63763384617</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -21593,15 +21269,11 @@
         <v>52174.89393384617</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -21630,15 +21302,11 @@
         <v>51900.04363384617</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -21667,15 +21335,11 @@
         <v>53212.37863384617</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -21704,15 +21368,11 @@
         <v>52699.04683384617</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -21741,15 +21401,11 @@
         <v>53288.79543384617</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -21778,15 +21434,11 @@
         <v>51235.32303384617</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -21815,15 +21467,11 @@
         <v>51684.22913384617</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -21852,15 +21500,11 @@
         <v>51667.01923384617</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -21889,15 +21533,11 @@
         <v>50542.26458112778</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -21926,15 +21566,11 @@
         <v>51310.19218112779</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -21963,15 +21599,11 @@
         <v>52176.92228112779</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -22004,11 +21636,7 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -22041,11 +21669,7 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -22078,11 +21702,7 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -22115,11 +21735,7 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -22148,15 +21764,11 @@
         <v>52018.95898112778</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -22189,11 +21801,7 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -22226,11 +21834,7 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -22263,11 +21867,7 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -22300,11 +21900,7 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -22337,11 +21933,7 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -22374,11 +21966,7 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -22411,11 +21999,7 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -22448,11 +22032,7 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -22485,11 +22065,7 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -22522,11 +22098,7 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -22559,11 +22131,7 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -22596,11 +22164,7 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -22633,11 +22197,7 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -22670,11 +22230,7 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -22707,11 +22263,7 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -22744,11 +22296,7 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -22781,11 +22329,7 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -22818,11 +22362,7 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -22855,11 +22395,7 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -22892,11 +22428,7 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -22929,11 +22461,7 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -22966,11 +22494,7 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -23003,11 +22527,7 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -23040,11 +22560,7 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -23077,11 +22593,7 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -23114,11 +22626,7 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -23151,11 +22659,7 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -23188,11 +22692,7 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -23225,11 +22725,7 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -23262,11 +22758,7 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -23299,11 +22791,7 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -23336,11 +22824,7 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -23373,11 +22857,7 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -23410,11 +22890,7 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -23447,11 +22923,7 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -23484,11 +22956,7 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -23521,11 +22989,7 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -23558,11 +23022,7 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -23595,11 +23055,7 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -23632,11 +23088,7 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -23669,11 +23121,7 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -23706,11 +23154,7 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -23743,11 +23187,7 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -23780,11 +23220,7 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -23817,11 +23253,7 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -23854,11 +23286,7 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -23891,11 +23319,7 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -23928,11 +23352,7 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -23965,11 +23385,7 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -24002,11 +23418,7 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -24039,11 +23451,7 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -24076,11 +23484,7 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -24113,11 +23517,7 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -24150,11 +23550,7 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -24187,11 +23583,7 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -24224,11 +23616,7 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -24261,11 +23649,7 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -24298,11 +23682,7 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -24335,11 +23715,7 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -24372,11 +23748,7 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -24409,11 +23781,7 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -24446,11 +23814,7 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -24483,11 +23847,7 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -24520,11 +23880,7 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -24557,11 +23913,7 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -24594,11 +23946,7 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -24631,11 +23979,7 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -24668,11 +24012,7 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -24705,11 +24045,7 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -24742,11 +24078,7 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -24779,11 +24111,7 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -24816,11 +24144,7 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -24853,11 +24177,7 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -24890,11 +24210,7 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -24927,11 +24243,7 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -24964,11 +24276,7 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -25001,11 +24309,7 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -25038,11 +24342,7 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -25075,11 +24375,7 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -25112,11 +24408,7 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -25149,11 +24441,7 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -25186,11 +24474,7 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -25223,11 +24507,7 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -25260,11 +24540,7 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -25297,11 +24573,7 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -25334,11 +24606,7 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -25371,11 +24639,7 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -25408,11 +24672,7 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -25445,11 +24705,7 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -25482,11 +24738,7 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -25519,11 +24771,7 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -25556,11 +24804,7 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -25593,11 +24837,7 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -25630,11 +24870,7 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -25667,11 +24903,7 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -25704,11 +24936,7 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -25741,11 +24969,7 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -25778,11 +25002,7 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -25815,11 +25035,7 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -25852,11 +25068,7 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -25889,11 +25101,7 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -25926,11 +25134,7 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -25963,11 +25167,7 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -26000,11 +25200,7 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -26037,11 +25233,7 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -26074,11 +25266,7 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -26111,11 +25299,7 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -26148,11 +25332,7 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -26185,11 +25365,7 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -26222,11 +25398,7 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -26259,11 +25431,7 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -26296,11 +25464,7 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -26333,11 +25497,7 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K696" t="inlineStr"/>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -26370,11 +25530,7 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K697" t="inlineStr"/>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -26407,11 +25563,7 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -26444,11 +25596,7 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -26481,11 +25629,7 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -26518,11 +25662,7 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -26555,11 +25695,7 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -26592,11 +25728,7 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -26629,11 +25761,7 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K704" t="inlineStr"/>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -26666,11 +25794,7 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K705" t="inlineStr"/>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -26703,11 +25827,7 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K706" t="inlineStr"/>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -26740,11 +25860,7 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K707" t="inlineStr"/>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -26777,11 +25893,7 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K708" t="inlineStr"/>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -26814,11 +25926,7 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K709" t="inlineStr"/>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -26851,11 +25959,7 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K710" t="inlineStr"/>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -26888,11 +25992,7 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K711" t="inlineStr"/>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -26925,11 +26025,7 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K712" t="inlineStr"/>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -26962,11 +26058,7 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K713" t="inlineStr"/>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -26999,11 +26091,7 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K714" t="inlineStr"/>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -27036,11 +26124,7 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K715" t="inlineStr"/>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -27073,11 +26157,7 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K716" t="inlineStr"/>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -27110,11 +26190,7 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K717" t="inlineStr"/>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -27147,11 +26223,7 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K718" t="inlineStr"/>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -27184,11 +26256,7 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K719" t="inlineStr"/>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -27221,11 +26289,7 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K720" t="inlineStr"/>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -27258,11 +26322,7 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K721" t="inlineStr"/>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -27295,11 +26355,7 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K722" t="inlineStr"/>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -27332,11 +26388,7 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K723" t="inlineStr"/>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -27369,11 +26421,7 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K724" t="inlineStr"/>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -27406,11 +26454,7 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K725" t="inlineStr"/>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -27443,11 +26487,7 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K726" t="inlineStr"/>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -27480,11 +26520,7 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K727" t="inlineStr"/>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -27517,11 +26553,7 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K728" t="inlineStr"/>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -27554,11 +26586,7 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K729" t="inlineStr"/>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -27591,11 +26619,7 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K730" t="inlineStr"/>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -27628,11 +26652,7 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K731" t="inlineStr"/>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -27665,11 +26685,7 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K732" t="inlineStr"/>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -27702,11 +26718,7 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K733" t="inlineStr"/>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -27739,11 +26751,7 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K734" t="inlineStr"/>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -27776,11 +26784,7 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K735" t="inlineStr"/>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -27813,11 +26817,7 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K736" t="inlineStr"/>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -27850,11 +26850,7 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K737" t="inlineStr"/>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -27887,11 +26883,7 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K738" t="inlineStr"/>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -27924,11 +26916,7 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K739" t="inlineStr"/>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -27961,11 +26949,7 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K740" t="inlineStr"/>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -27998,11 +26982,7 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K741" t="inlineStr"/>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -28035,11 +27015,7 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K742" t="inlineStr"/>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -28072,11 +27048,7 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K743" t="inlineStr"/>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -28109,11 +27081,7 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K744" t="inlineStr"/>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -28146,11 +27114,7 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K745" t="inlineStr"/>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -28183,11 +27147,7 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K746" t="inlineStr"/>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -28220,11 +27180,7 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K747" t="inlineStr"/>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -28257,11 +27213,7 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K748" t="inlineStr"/>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -28294,11 +27246,7 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K749" t="inlineStr"/>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -28331,11 +27279,7 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K750" t="inlineStr"/>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -28368,11 +27312,7 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K751" t="inlineStr"/>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -28405,11 +27345,7 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K752" t="inlineStr"/>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -28442,11 +27378,7 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K753" t="inlineStr"/>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -28479,11 +27411,7 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K754" t="inlineStr"/>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -28516,11 +27444,7 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K755" t="inlineStr"/>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -28553,11 +27477,7 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K756" t="inlineStr"/>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -28590,11 +27510,7 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K757" t="inlineStr"/>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -28627,11 +27543,7 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K758" t="inlineStr"/>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -28664,11 +27576,7 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K759" t="inlineStr"/>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -28701,11 +27609,7 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K760" t="inlineStr"/>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -28738,11 +27642,7 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K761" t="inlineStr"/>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -28775,11 +27675,7 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K762" t="inlineStr"/>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -28812,11 +27708,7 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K763" t="inlineStr"/>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -28849,11 +27741,7 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K764" t="inlineStr"/>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -28886,11 +27774,7 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K765" t="inlineStr"/>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -28923,11 +27807,7 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K766" t="inlineStr"/>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -28960,11 +27840,7 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K767" t="inlineStr"/>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -28993,16 +27869,14 @@
         <v>64508.73262550851</v>
       </c>
       <c r="H768" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L768" t="inlineStr"/>
+      <c r="K768" t="inlineStr"/>
+      <c r="L768" t="n">
+        <v>1</v>
+      </c>
       <c r="M768" t="inlineStr"/>
     </row>
     <row r="769">
@@ -29028,7 +27902,7 @@
         <v>64408.73262550851</v>
       </c>
       <c r="H769" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -29061,7 +27935,7 @@
         <v>64902.34682550852</v>
       </c>
       <c r="H770" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -29193,7 +28067,7 @@
         <v>65879.11032550852</v>
       </c>
       <c r="H774" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -29622,7 +28496,7 @@
         <v>68149.27723384184</v>
       </c>
       <c r="H787" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -29655,7 +28529,7 @@
         <v>68149.27723384184</v>
       </c>
       <c r="H788" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -29688,7 +28562,7 @@
         <v>67765.78767863988</v>
       </c>
       <c r="H789" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -29721,7 +28595,7 @@
         <v>67384.87427863988</v>
       </c>
       <c r="H790" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -32460,7 +31334,7 @@
         <v>67494.67984444338</v>
       </c>
       <c r="H873" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -32625,7 +31499,7 @@
         <v>69329.22414444337</v>
       </c>
       <c r="H878" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -32691,7 +31565,7 @@
         <v>69441.99884444338</v>
       </c>
       <c r="H880" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -32922,7 +31796,7 @@
         <v>68757.88704444339</v>
       </c>
       <c r="H887" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -33021,7 +31895,7 @@
         <v>68952.92004444338</v>
       </c>
       <c r="H890" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -33912,7 +32786,7 @@
         <v>72569.43314444339</v>
       </c>
       <c r="H917" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -33945,7 +32819,7 @@
         <v>72402.44664444339</v>
       </c>
       <c r="H918" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -33978,7 +32852,7 @@
         <v>73289.40024444339</v>
       </c>
       <c r="H919" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -34011,7 +32885,7 @@
         <v>73289.33904444339</v>
       </c>
       <c r="H920" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -34044,7 +32918,7 @@
         <v>73319.99564444339</v>
       </c>
       <c r="H921" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -34077,7 +32951,7 @@
         <v>73673.32946688865</v>
       </c>
       <c r="H922" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -34110,7 +32984,7 @@
         <v>72737.87966688865</v>
       </c>
       <c r="H923" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -34143,7 +33017,7 @@
         <v>72609.63996688864</v>
       </c>
       <c r="H924" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -34176,7 +33050,7 @@
         <v>76618.57298942214</v>
       </c>
       <c r="H925" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -34209,7 +33083,7 @@
         <v>76359.46818942214</v>
       </c>
       <c r="H926" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -34242,7 +33116,7 @@
         <v>76359.46818942214</v>
       </c>
       <c r="H927" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -34275,7 +33149,7 @@
         <v>76335.88818942214</v>
       </c>
       <c r="H928" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -34308,7 +33182,7 @@
         <v>76335.88818942214</v>
       </c>
       <c r="H929" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -34341,7 +33215,7 @@
         <v>76335.88818942214</v>
       </c>
       <c r="H930" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -34374,7 +33248,7 @@
         <v>76747.26408942214</v>
       </c>
       <c r="H931" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -34407,7 +33281,7 @@
         <v>77042.41138942214</v>
       </c>
       <c r="H932" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -34440,7 +33314,7 @@
         <v>77158.86198942213</v>
       </c>
       <c r="H933" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -34473,7 +33347,7 @@
         <v>77969.71608942213</v>
       </c>
       <c r="H934" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -34506,7 +33380,7 @@
         <v>80949.96898942214</v>
       </c>
       <c r="H935" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -34539,7 +33413,7 @@
         <v>80391.75028942214</v>
       </c>
       <c r="H936" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -34572,7 +33446,7 @@
         <v>82817.58325993421</v>
       </c>
       <c r="H937" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -34605,7 +33479,7 @@
         <v>82226.46865993421</v>
       </c>
       <c r="H938" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -34638,7 +33512,7 @@
         <v>82045.86395993421</v>
       </c>
       <c r="H939" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -34671,7 +33545,7 @@
         <v>82068.43075993421</v>
       </c>
       <c r="H940" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -34704,7 +33578,7 @@
         <v>82152.99895993421</v>
       </c>
       <c r="H941" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -34737,7 +33611,7 @@
         <v>82273.7800599342</v>
       </c>
       <c r="H942" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -34770,7 +33644,7 @@
         <v>82952.22719162435</v>
       </c>
       <c r="H943" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -34803,7 +33677,7 @@
         <v>86066.14616687299</v>
       </c>
       <c r="H944" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -34836,7 +33710,7 @@
         <v>88820.26534360509</v>
       </c>
       <c r="H945" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -34869,7 +33743,7 @@
         <v>86837.43684360509</v>
       </c>
       <c r="H946" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -34902,7 +33776,7 @@
         <v>86036.63884360509</v>
       </c>
       <c r="H947" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -34935,7 +33809,7 @@
         <v>86716.75774360509</v>
       </c>
       <c r="H948" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -34968,7 +33842,7 @@
         <v>87624.61674360509</v>
       </c>
       <c r="H949" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -35001,7 +33875,7 @@
         <v>84212.27034360509</v>
       </c>
       <c r="H950" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -35034,7 +33908,7 @@
         <v>83889.22164360509</v>
       </c>
       <c r="H951" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -35067,7 +33941,7 @@
         <v>84116.22154360509</v>
       </c>
       <c r="H952" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -35100,7 +33974,7 @@
         <v>85034.15064360508</v>
       </c>
       <c r="H953" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -35133,7 +34007,7 @@
         <v>85597.70214360509</v>
       </c>
       <c r="H954" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
@@ -35166,7 +34040,7 @@
         <v>85072.72614360509</v>
       </c>
       <c r="H955" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -35199,7 +34073,7 @@
         <v>85500.02304360509</v>
       </c>
       <c r="H956" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -35232,7 +34106,7 @@
         <v>84735.5495436051</v>
       </c>
       <c r="H957" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -35265,7 +34139,7 @@
         <v>84874.0873436051</v>
       </c>
       <c r="H958" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -35298,7 +34172,7 @@
         <v>83351.79824360511</v>
       </c>
       <c r="H959" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -35397,7 +34271,7 @@
         <v>85432.73544360511</v>
       </c>
       <c r="H962" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -35430,7 +34304,7 @@
         <v>83788.26644360511</v>
       </c>
       <c r="H963" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -35463,7 +34337,7 @@
         <v>80704.30144360512</v>
       </c>
       <c r="H964" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -35496,7 +34370,7 @@
         <v>81500.40604360512</v>
       </c>
       <c r="H965" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -35529,7 +34403,7 @@
         <v>83512.28704360512</v>
       </c>
       <c r="H966" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -35562,7 +34436,7 @@
         <v>82650.39464360512</v>
       </c>
       <c r="H967" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -35694,7 +34568,7 @@
         <v>85627.37184360511</v>
       </c>
       <c r="H971" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -35727,7 +34601,7 @@
         <v>85407.09234360511</v>
       </c>
       <c r="H972" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -35760,7 +34634,7 @@
         <v>86085.46744360511</v>
       </c>
       <c r="H973" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -35793,7 +34667,7 @@
         <v>85612.10744360511</v>
       </c>
       <c r="H974" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -35826,7 +34700,7 @@
         <v>86038.66244360511</v>
       </c>
       <c r="H975" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -35859,7 +34733,7 @@
         <v>86919.1883436051</v>
       </c>
       <c r="H976" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -35892,7 +34766,7 @@
         <v>86659.16704360511</v>
       </c>
       <c r="H977" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -35925,7 +34799,7 @@
         <v>87078.30444360511</v>
       </c>
       <c r="H978" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -36486,7 +35360,7 @@
         <v>83229.12444360515</v>
       </c>
       <c r="H995" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -36552,7 +35426,7 @@
         <v>82297.08464360515</v>
       </c>
       <c r="H997" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -36618,7 +35492,7 @@
         <v>82334.69344360515</v>
       </c>
       <c r="H999" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -36651,7 +35525,7 @@
         <v>82206.54984360516</v>
       </c>
       <c r="H1000" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -36684,7 +35558,7 @@
         <v>82206.54984360516</v>
       </c>
       <c r="H1001" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -36717,7 +35591,7 @@
         <v>82192.00694360516</v>
       </c>
       <c r="H1002" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
@@ -36750,7 +35624,7 @@
         <v>81765.73934360515</v>
       </c>
       <c r="H1003" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
@@ -36783,7 +35657,7 @@
         <v>82011.11574360514</v>
       </c>
       <c r="H1004" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
@@ -36816,7 +35690,7 @@
         <v>82248.51574360514</v>
       </c>
       <c r="H1005" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
@@ -36849,7 +35723,7 @@
         <v>83029.62574360514</v>
       </c>
       <c r="H1006" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
@@ -36882,7 +35756,7 @@
         <v>83029.62574360514</v>
       </c>
       <c r="H1007" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
@@ -36915,7 +35789,7 @@
         <v>82309.89799514908</v>
       </c>
       <c r="H1008" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
@@ -36948,7 +35822,7 @@
         <v>82578.37749514908</v>
       </c>
       <c r="H1009" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -36981,7 +35855,7 @@
         <v>82560.11359514907</v>
       </c>
       <c r="H1010" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
@@ -37014,7 +35888,7 @@
         <v>82660.11359514907</v>
       </c>
       <c r="H1011" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
@@ -37509,7 +36383,7 @@
         <v>82985.91189514905</v>
       </c>
       <c r="H1026" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
@@ -37641,7 +36515,7 @@
         <v>82497.89529514905</v>
       </c>
       <c r="H1030" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
@@ -37674,7 +36548,7 @@
         <v>82502.50299514904</v>
       </c>
       <c r="H1031" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
@@ -37839,7 +36713,7 @@
         <v>82335.95419514904</v>
       </c>
       <c r="H1036" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
@@ -37872,7 +36746,7 @@
         <v>82335.95419514904</v>
       </c>
       <c r="H1037" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
@@ -37905,7 +36779,7 @@
         <v>82618.36229514904</v>
       </c>
       <c r="H1038" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -37938,7 +36812,7 @@
         <v>82618.36229514904</v>
       </c>
       <c r="H1039" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
@@ -38004,7 +36878,7 @@
         <v>82454.53379514905</v>
       </c>
       <c r="H1041" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
@@ -38037,7 +36911,7 @@
         <v>82454.53379514905</v>
       </c>
       <c r="H1042" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
@@ -38070,7 +36944,7 @@
         <v>82361.04379514905</v>
       </c>
       <c r="H1043" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
@@ -38235,7 +37109,7 @@
         <v>80941.79829514904</v>
       </c>
       <c r="H1048" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
@@ -38730,7 +37604,7 @@
         <v>77872.08628731265</v>
       </c>
       <c r="H1063" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
@@ -38862,7 +37736,7 @@
         <v>79324.51288731265</v>
       </c>
       <c r="H1067" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
@@ -38895,7 +37769,7 @@
         <v>79324.51288731265</v>
       </c>
       <c r="H1068" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
@@ -38928,7 +37802,7 @@
         <v>79069.82008731265</v>
       </c>
       <c r="H1069" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
@@ -38961,7 +37835,7 @@
         <v>79296.60758731265</v>
       </c>
       <c r="H1070" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
@@ -38994,7 +37868,7 @@
         <v>79668.04378731265</v>
       </c>
       <c r="H1071" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
@@ -39027,7 +37901,7 @@
         <v>79863.54118731264</v>
       </c>
       <c r="H1072" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
@@ -39060,7 +37934,7 @@
         <v>79743.97818731265</v>
       </c>
       <c r="H1073" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
@@ -39093,7 +37967,7 @@
         <v>80045.68998731265</v>
       </c>
       <c r="H1074" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
@@ -39126,7 +38000,7 @@
         <v>80145.68998731265</v>
       </c>
       <c r="H1075" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
@@ -39159,7 +38033,7 @@
         <v>79895.60838731265</v>
       </c>
       <c r="H1076" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
@@ -39192,7 +38066,7 @@
         <v>79895.60838731265</v>
       </c>
       <c r="H1077" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
@@ -39225,7 +38099,7 @@
         <v>79512.85843857923</v>
       </c>
       <c r="H1078" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
@@ -39258,7 +38132,7 @@
         <v>79512.85843857923</v>
       </c>
       <c r="H1079" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
@@ -39291,7 +38165,7 @@
         <v>80159.83713857924</v>
       </c>
       <c r="H1080" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
@@ -39324,7 +38198,7 @@
         <v>80212.80063857924</v>
       </c>
       <c r="H1081" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
@@ -39357,7 +38231,7 @@
         <v>80271.55963857925</v>
       </c>
       <c r="H1082" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
@@ -39390,7 +38264,7 @@
         <v>81120.69823857925</v>
       </c>
       <c r="H1083" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
@@ -39423,7 +38297,7 @@
         <v>81464.07303857926</v>
       </c>
       <c r="H1084" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
@@ -39852,7 +38726,7 @@
         <v>81221.88433857926</v>
       </c>
       <c r="H1097" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="inlineStr"/>
@@ -39885,7 +38759,7 @@
         <v>81185.48493857926</v>
       </c>
       <c r="H1098" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="inlineStr"/>
@@ -39918,7 +38792,7 @@
         <v>80931.70113857926</v>
       </c>
       <c r="H1099" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1099" t="inlineStr"/>
       <c r="J1099" t="inlineStr"/>
@@ -39984,7 +38858,7 @@
         <v>81433.55861312148</v>
       </c>
       <c r="H1101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1101" t="inlineStr"/>
       <c r="J1101" t="inlineStr"/>
@@ -40017,7 +38891,7 @@
         <v>80188.22835702141</v>
       </c>
       <c r="H1102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1102" t="inlineStr"/>
       <c r="J1102" t="inlineStr"/>
@@ -40050,7 +38924,7 @@
         <v>80144.45485702141</v>
       </c>
       <c r="H1103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1103" t="inlineStr"/>
       <c r="J1103" t="inlineStr"/>
@@ -40083,7 +38957,7 @@
         <v>80139.45485702141</v>
       </c>
       <c r="H1104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1104" t="inlineStr"/>
       <c r="J1104" t="inlineStr"/>
@@ -40116,7 +38990,7 @@
         <v>79934.26425060048</v>
       </c>
       <c r="H1105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1105" t="inlineStr"/>
       <c r="J1105" t="inlineStr"/>
@@ -40149,7 +39023,7 @@
         <v>79684.60615060048</v>
       </c>
       <c r="H1106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1106" t="inlineStr"/>
       <c r="J1106" t="inlineStr"/>
@@ -40182,7 +39056,7 @@
         <v>79553.61525060047</v>
       </c>
       <c r="H1107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1107" t="inlineStr"/>
       <c r="J1107" t="inlineStr"/>
@@ -40215,7 +39089,7 @@
         <v>79888.86715060048</v>
       </c>
       <c r="H1108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1108" t="inlineStr"/>
       <c r="J1108" t="inlineStr"/>
@@ -40248,7 +39122,7 @@
         <v>79888.86715060048</v>
       </c>
       <c r="H1109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1109" t="inlineStr"/>
       <c r="J1109" t="inlineStr"/>
@@ -40281,7 +39155,7 @@
         <v>79769.19865060048</v>
       </c>
       <c r="H1110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="inlineStr"/>
@@ -40314,7 +39188,7 @@
         <v>79900.67735060048</v>
       </c>
       <c r="H1111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1111" t="inlineStr"/>
       <c r="J1111" t="inlineStr"/>
@@ -40347,7 +39221,7 @@
         <v>79844.14735060048</v>
       </c>
       <c r="H1112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1112" t="inlineStr"/>
       <c r="J1112" t="inlineStr"/>
@@ -40380,7 +39254,7 @@
         <v>79856.17325060048</v>
       </c>
       <c r="H1113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1113" t="inlineStr"/>
       <c r="J1113" t="inlineStr"/>
@@ -40413,7 +39287,7 @@
         <v>79918.25605060048</v>
       </c>
       <c r="H1114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1114" t="inlineStr"/>
       <c r="J1114" t="inlineStr"/>
@@ -40446,7 +39320,7 @@
         <v>80727.17525060049</v>
       </c>
       <c r="H1115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1115" t="inlineStr"/>
       <c r="J1115" t="inlineStr"/>
@@ -40479,7 +39353,7 @@
         <v>80727.17525060049</v>
       </c>
       <c r="H1116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1116" t="inlineStr"/>
       <c r="J1116" t="inlineStr"/>
@@ -40512,7 +39386,7 @@
         <v>80727.17525060049</v>
       </c>
       <c r="H1117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1117" t="inlineStr"/>
       <c r="J1117" t="inlineStr"/>
@@ -40545,7 +39419,7 @@
         <v>80667.66625060048</v>
       </c>
       <c r="H1118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1118" t="inlineStr"/>
       <c r="J1118" t="inlineStr"/>
@@ -40578,7 +39452,7 @@
         <v>80472.92205060048</v>
       </c>
       <c r="H1119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1119" t="inlineStr"/>
       <c r="J1119" t="inlineStr"/>
@@ -40611,7 +39485,7 @@
         <v>80444.07465060048</v>
       </c>
       <c r="H1120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1120" t="inlineStr"/>
       <c r="J1120" t="inlineStr"/>
@@ -40644,7 +39518,7 @@
         <v>80528.02095060048</v>
       </c>
       <c r="H1121" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1121" t="inlineStr"/>
       <c r="J1121" t="inlineStr"/>
@@ -40677,7 +39551,7 @@
         <v>80268.53865060047</v>
       </c>
       <c r="H1122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1122" t="inlineStr"/>
       <c r="J1122" t="inlineStr"/>
@@ -40710,7 +39584,7 @@
         <v>80268.53865060047</v>
       </c>
       <c r="H1123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1123" t="inlineStr"/>
       <c r="J1123" t="inlineStr"/>
@@ -40743,7 +39617,7 @@
         <v>80056.93345060047</v>
       </c>
       <c r="H1124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1124" t="inlineStr"/>
       <c r="J1124" t="inlineStr"/>
@@ -40776,7 +39650,7 @@
         <v>79374.75425060047</v>
       </c>
       <c r="H1125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1125" t="inlineStr"/>
       <c r="J1125" t="inlineStr"/>
@@ -40842,7 +39716,7 @@
         <v>80213.42525060047</v>
       </c>
       <c r="H1127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1127" t="inlineStr"/>
       <c r="J1127" t="inlineStr"/>
@@ -40875,7 +39749,7 @@
         <v>80310.42525060047</v>
       </c>
       <c r="H1128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1128" t="inlineStr"/>
       <c r="J1128" t="inlineStr"/>
@@ -40941,7 +39815,7 @@
         <v>80271.74765060046</v>
       </c>
       <c r="H1130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1130" t="inlineStr"/>
       <c r="J1130" t="inlineStr"/>
@@ -40974,7 +39848,7 @@
         <v>80569.93965060046</v>
       </c>
       <c r="H1131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1131" t="inlineStr"/>
       <c r="J1131" t="inlineStr"/>
@@ -41007,7 +39881,7 @@
         <v>80564.10855060046</v>
       </c>
       <c r="H1132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1132" t="inlineStr"/>
       <c r="J1132" t="inlineStr"/>
@@ -41040,7 +39914,7 @@
         <v>82432.18251907683</v>
       </c>
       <c r="H1133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1133" t="inlineStr"/>
       <c r="J1133" t="inlineStr"/>
@@ -41073,7 +39947,7 @@
         <v>82394.35591907683</v>
       </c>
       <c r="H1134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1134" t="inlineStr"/>
       <c r="J1134" t="inlineStr"/>
@@ -41106,7 +39980,7 @@
         <v>82039.43921907683</v>
       </c>
       <c r="H1135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1135" t="inlineStr"/>
       <c r="J1135" t="inlineStr"/>
@@ -41139,7 +40013,7 @@
         <v>82032.39001907683</v>
       </c>
       <c r="H1136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1136" t="inlineStr"/>
       <c r="J1136" t="inlineStr"/>
@@ -41172,7 +40046,7 @@
         <v>82127.80241907683</v>
       </c>
       <c r="H1137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1137" t="inlineStr"/>
       <c r="J1137" t="inlineStr"/>
@@ -41205,7 +40079,7 @@
         <v>82023.35321907683</v>
       </c>
       <c r="H1138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1138" t="inlineStr"/>
       <c r="J1138" t="inlineStr"/>
@@ -41238,7 +40112,7 @@
         <v>81021.31501907684</v>
       </c>
       <c r="H1139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1139" t="inlineStr"/>
       <c r="J1139" t="inlineStr"/>
@@ -41271,7 +40145,7 @@
         <v>81021.31501907684</v>
       </c>
       <c r="H1140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1140" t="inlineStr"/>
       <c r="J1140" t="inlineStr"/>
@@ -41403,7 +40277,7 @@
         <v>80660.55841907684</v>
       </c>
       <c r="H1144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1144" t="inlineStr"/>
       <c r="J1144" t="inlineStr"/>
@@ -41436,7 +40310,7 @@
         <v>80660.55841907684</v>
       </c>
       <c r="H1145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1145" t="inlineStr"/>
       <c r="J1145" t="inlineStr"/>
@@ -41469,7 +40343,7 @@
         <v>79758.62051907684</v>
       </c>
       <c r="H1146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1146" t="inlineStr"/>
       <c r="J1146" t="inlineStr"/>
@@ -41502,7 +40376,7 @@
         <v>80720.22741907684</v>
       </c>
       <c r="H1147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1147" t="inlineStr"/>
       <c r="J1147" t="inlineStr"/>
@@ -41535,7 +40409,7 @@
         <v>81251.93691907683</v>
       </c>
       <c r="H1148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1148" t="inlineStr"/>
       <c r="J1148" t="inlineStr"/>
@@ -41568,7 +40442,7 @@
         <v>81104.68511907684</v>
       </c>
       <c r="H1149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1149" t="inlineStr"/>
       <c r="J1149" t="inlineStr"/>
@@ -41601,7 +40475,7 @@
         <v>81367.26151907684</v>
       </c>
       <c r="H1150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1150" t="inlineStr"/>
       <c r="J1150" t="inlineStr"/>
@@ -41634,7 +40508,7 @@
         <v>81426.7061783228</v>
       </c>
       <c r="H1151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1151" t="inlineStr"/>
       <c r="J1151" t="inlineStr"/>
@@ -41667,7 +40541,7 @@
         <v>81834.08807832279</v>
       </c>
       <c r="H1152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1152" t="inlineStr"/>
       <c r="J1152" t="inlineStr"/>
@@ -41700,7 +40574,7 @@
         <v>81967.55287832279</v>
       </c>
       <c r="H1153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1153" t="inlineStr"/>
       <c r="J1153" t="inlineStr"/>
@@ -41733,7 +40607,7 @@
         <v>82377.3973783228</v>
       </c>
       <c r="H1154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1154" t="inlineStr"/>
       <c r="J1154" t="inlineStr"/>
@@ -41766,7 +40640,7 @@
         <v>82094.5107783228</v>
       </c>
       <c r="H1155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1155" t="inlineStr"/>
       <c r="J1155" t="inlineStr"/>
@@ -41799,7 +40673,7 @@
         <v>82424.9647783228</v>
       </c>
       <c r="H1156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1156" t="inlineStr"/>
       <c r="J1156" t="inlineStr"/>
@@ -41832,7 +40706,7 @@
         <v>82043.7370783228</v>
       </c>
       <c r="H1157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1157" t="inlineStr"/>
       <c r="J1157" t="inlineStr"/>
@@ -41865,7 +40739,7 @@
         <v>81940.7370783228</v>
       </c>
       <c r="H1158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1158" t="inlineStr"/>
       <c r="J1158" t="inlineStr"/>
@@ -41898,7 +40772,7 @@
         <v>82206.7975783228</v>
       </c>
       <c r="H1159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1159" t="inlineStr"/>
       <c r="J1159" t="inlineStr"/>
@@ -41931,7 +40805,7 @@
         <v>82449.9740783228</v>
       </c>
       <c r="H1160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1160" t="inlineStr"/>
       <c r="J1160" t="inlineStr"/>
@@ -41964,7 +40838,7 @@
         <v>84398.41321150733</v>
       </c>
       <c r="H1161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1161" t="inlineStr"/>
       <c r="J1161" t="inlineStr"/>
@@ -42063,7 +40937,7 @@
         <v>83562.12751150734</v>
       </c>
       <c r="H1164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1164" t="inlineStr"/>
       <c r="J1164" t="inlineStr"/>
@@ -42162,7 +41036,7 @@
         <v>83670.45351150732</v>
       </c>
       <c r="H1167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1167" t="inlineStr"/>
       <c r="J1167" t="inlineStr"/>
@@ -42327,7 +41201,7 @@
         <v>78568.15201150732</v>
       </c>
       <c r="H1172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1172" t="inlineStr"/>
       <c r="J1172" t="inlineStr"/>
@@ -42360,7 +41234,7 @@
         <v>79681.33511150732</v>
       </c>
       <c r="H1173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1173" t="inlineStr"/>
       <c r="J1173" t="inlineStr"/>
@@ -42393,7 +41267,7 @@
         <v>79617.47391150732</v>
       </c>
       <c r="H1174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1174" t="inlineStr"/>
       <c r="J1174" t="inlineStr"/>
@@ -42426,7 +41300,7 @@
         <v>80045.54401150731</v>
       </c>
       <c r="H1175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1175" t="inlineStr"/>
       <c r="J1175" t="inlineStr"/>
@@ -42459,7 +41333,7 @@
         <v>81458.70051150731</v>
       </c>
       <c r="H1176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1176" t="inlineStr"/>
       <c r="J1176" t="inlineStr"/>
@@ -42492,7 +41366,7 @@
         <v>81414.8903115073</v>
       </c>
       <c r="H1177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1177" t="inlineStr"/>
       <c r="J1177" t="inlineStr"/>
@@ -42525,7 +41399,7 @@
         <v>80878.73871150731</v>
       </c>
       <c r="H1178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1178" t="inlineStr"/>
       <c r="J1178" t="inlineStr"/>
@@ -42558,7 +41432,7 @@
         <v>80878.73871150731</v>
       </c>
       <c r="H1179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1179" t="inlineStr"/>
       <c r="J1179" t="inlineStr"/>
@@ -42591,7 +41465,7 @@
         <v>81105.43261150731</v>
       </c>
       <c r="H1180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1180" t="inlineStr"/>
       <c r="J1180" t="inlineStr"/>
@@ -42624,7 +41498,7 @@
         <v>80852.8756115073</v>
       </c>
       <c r="H1181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1181" t="inlineStr"/>
       <c r="J1181" t="inlineStr"/>
@@ -42657,7 +41531,7 @@
         <v>81052.8756115073</v>
       </c>
       <c r="H1182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1182" t="inlineStr"/>
       <c r="J1182" t="inlineStr"/>
@@ -42690,7 +41564,7 @@
         <v>81280.81631150731</v>
       </c>
       <c r="H1183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1183" t="inlineStr"/>
       <c r="J1183" t="inlineStr"/>
@@ -42723,7 +41597,7 @@
         <v>81685.81431150732</v>
       </c>
       <c r="H1184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1184" t="inlineStr"/>
       <c r="J1184" t="inlineStr"/>
@@ -42756,7 +41630,7 @@
         <v>81177.43311150731</v>
       </c>
       <c r="H1185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1185" t="inlineStr"/>
       <c r="J1185" t="inlineStr"/>
@@ -42789,7 +41663,7 @@
         <v>81279.43311150731</v>
       </c>
       <c r="H1186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1186" t="inlineStr"/>
       <c r="J1186" t="inlineStr"/>
@@ -42822,7 +41696,7 @@
         <v>81720.95701150731</v>
       </c>
       <c r="H1187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1187" t="inlineStr"/>
       <c r="J1187" t="inlineStr"/>
@@ -42855,7 +41729,7 @@
         <v>81227.53281150732</v>
       </c>
       <c r="H1188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1188" t="inlineStr"/>
       <c r="J1188" t="inlineStr"/>
@@ -42866,6 +41740,6 @@
       <c r="M1188" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest ETC.xlsx
+++ b/BackTest/2020-01-16 BackTest ETC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -682,14 +682,10 @@
         <v>7675.803453472079</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>6935</v>
-      </c>
-      <c r="J9" t="n">
-        <v>6935</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -719,19 +715,11 @@
         <v>7029.232353472079</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>7105</v>
-      </c>
-      <c r="J10" t="n">
-        <v>6935</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -765,12 +753,10 @@
       <c r="I11" t="n">
         <v>7000</v>
       </c>
-      <c r="J11" t="n">
-        <v>6935</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -805,7 +791,11 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -838,7 +828,11 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -871,7 +865,11 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -904,7 +902,11 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -937,7 +939,11 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -970,7 +976,11 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1003,7 +1013,11 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1032,15 +1046,13 @@
         <v>10343.95490860639</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>7070</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -1071,11 +1083,9 @@
         <v>10442.56140860639</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>7050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
@@ -1227,9 +1237,11 @@
         <v>10406.59420860639</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>7060</v>
+      </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
@@ -1412,9 +1424,11 @@
         <v>8842.274368923854</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>6995</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
@@ -1486,11 +1500,9 @@
         <v>7570.195668923855</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>6965</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
@@ -1525,11 +1537,9 @@
         <v>6798.780168923855</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>6925</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
@@ -1564,11 +1574,9 @@
         <v>5826.255968923855</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>6915</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
@@ -1603,11 +1611,9 @@
         <v>4488.524150598873</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>6910</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -1642,11 +1648,9 @@
         <v>5266.095150598873</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>6885</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
@@ -1681,11 +1685,9 @@
         <v>5728.409650598874</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>6920</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
@@ -1720,11 +1722,9 @@
         <v>6501.709650598874</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>6950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
@@ -1759,11 +1759,9 @@
         <v>6152.693650598874</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>6970</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
@@ -1798,11 +1796,9 @@
         <v>5608.579550598874</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>6955</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
@@ -2071,11 +2067,9 @@
         <v>7025.488250598874</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>7050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -2110,11 +2104,9 @@
         <v>7197.486350598874</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>7050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -2149,11 +2141,9 @@
         <v>6914.466950598874</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>7090</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
@@ -2225,11 +2215,9 @@
         <v>8627.693639252855</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>7070</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
@@ -6038,11 +6026,9 @@
         <v>11893.27101663454</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>7180</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
@@ -6114,11 +6100,9 @@
         <v>12121.47651663454</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>7170</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
@@ -6338,9 +6322,11 @@
         <v>11303.73451663454</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>7095</v>
+      </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
@@ -6375,9 +6361,11 @@
         <v>11539.04491663454</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>7145</v>
+      </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
@@ -6412,9 +6400,11 @@
         <v>11336.26361663454</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>7165</v>
+      </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
@@ -6449,9 +6439,11 @@
         <v>11446.26361663454</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>7160</v>
+      </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
@@ -6486,9 +6478,11 @@
         <v>11558.63231663454</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>7165</v>
+      </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
@@ -6523,9 +6517,11 @@
         <v>11357.63231663454</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>7195</v>
+      </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
@@ -6560,9 +6556,11 @@
         <v>11442.71911663454</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>7155</v>
+      </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
@@ -6597,9 +6595,11 @@
         <v>11442.71911663454</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>7185</v>
+      </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
@@ -6745,9 +6745,11 @@
         <v>11618.42971663454</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>7150</v>
+      </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
@@ -6782,9 +6784,11 @@
         <v>11845.18141663454</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>7105</v>
+      </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
@@ -6819,9 +6823,11 @@
         <v>11652.90871663455</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>7140</v>
+      </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
@@ -6856,9 +6862,11 @@
         <v>11692.81371663455</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>7090</v>
+      </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
@@ -6893,9 +6901,11 @@
         <v>11529.97161663455</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>7115</v>
+      </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
@@ -6930,9 +6940,11 @@
         <v>11529.97161663455</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>7090</v>
+      </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
@@ -6967,9 +6979,11 @@
         <v>11529.97161663455</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>7090</v>
+      </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
@@ -7004,9 +7018,11 @@
         <v>11474.02231663455</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>7090</v>
+      </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
@@ -7236,9 +7252,11 @@
         <v>11775.32321663454</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>7120</v>
+      </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
@@ -7273,9 +7291,11 @@
         <v>11921.55751663454</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>7125</v>
+      </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
@@ -7310,9 +7330,11 @@
         <v>11820.65751663454</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>7145</v>
+      </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
@@ -7347,9 +7369,11 @@
         <v>11820.65751663454</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>7130</v>
+      </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
@@ -7384,9 +7408,11 @@
         <v>11188.15911663454</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>7130</v>
+      </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
@@ -7421,9 +7447,11 @@
         <v>11307.58911663454</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>7125</v>
+      </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
@@ -7458,9 +7486,11 @@
         <v>11407.58911663454</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>7145</v>
+      </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
@@ -7495,9 +7525,11 @@
         <v>11612.58001663455</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>7150</v>
+      </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
@@ -8531,9 +8563,11 @@
         <v>13299.46751663455</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>7125</v>
+      </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
@@ -8568,9 +8602,11 @@
         <v>13340.03651663455</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>7090</v>
+      </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
@@ -9385,9 +9421,11 @@
         <v>13288.85571663455</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>7160</v>
+      </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
@@ -9422,9 +9460,11 @@
         <v>13550.88491663455</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>7140</v>
+      </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
@@ -9459,9 +9499,11 @@
         <v>13546.81181663455</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>7145</v>
+      </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
@@ -9496,9 +9538,11 @@
         <v>13446.01321663455</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>7140</v>
+      </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
@@ -9533,9 +9577,11 @@
         <v>13371.75761663455</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>7120</v>
+      </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
@@ -9804,9 +9850,11 @@
         <v>13755.34741663455</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>7200</v>
+      </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
@@ -9841,9 +9889,11 @@
         <v>13855.34741663455</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>7195</v>
+      </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
@@ -10026,9 +10076,11 @@
         <v>13318.70931663455</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>7110</v>
+      </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
@@ -10063,9 +10115,11 @@
         <v>13649.70931663455</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>7170</v>
+      </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
@@ -10100,9 +10154,11 @@
         <v>13502.46981663455</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>7195</v>
+      </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
@@ -10137,9 +10193,11 @@
         <v>13537.91761663455</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>7180</v>
+      </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
@@ -10359,11 +10417,9 @@
         <v>13217.01813068184</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>7175</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
@@ -10398,11 +10454,9 @@
         <v>13207.66953068184</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>7210</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
@@ -10474,11 +10528,9 @@
         <v>13164.87223068184</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>7185</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
@@ -10550,11 +10602,9 @@
         <v>12981.83013068184</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>7215</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
@@ -10589,11 +10639,9 @@
         <v>12749.46083068184</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>7200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
@@ -10628,11 +10676,9 @@
         <v>13146.56423068184</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>7175</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
@@ -10667,11 +10713,9 @@
         <v>13141.81263068184</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>7195</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
@@ -10706,11 +10750,9 @@
         <v>13148.71263068184</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>7150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
@@ -10745,11 +10787,9 @@
         <v>13148.71263068184</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>7175</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
@@ -10784,11 +10824,9 @@
         <v>13047.99703068184</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>7175</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
@@ -10823,11 +10861,9 @@
         <v>12857.99703068184</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>7155</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
@@ -10901,11 +10937,9 @@
         <v>12713.38913068184</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>7140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
@@ -10940,11 +10974,9 @@
         <v>12990.82773068184</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>7170</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
@@ -10979,11 +11011,9 @@
         <v>13018.05983068184</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>7175</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
@@ -11018,11 +11048,9 @@
         <v>13003.68623068184</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>7205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
@@ -11057,11 +11085,9 @@
         <v>13003.68623068184</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>7200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
@@ -11096,11 +11122,9 @@
         <v>13003.68623068184</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>7200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
@@ -14243,18 +14267,16 @@
         <v>13405.27851335753</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L372" t="n">
-        <v>1</v>
-      </c>
+      <c r="L372" t="inlineStr"/>
       <c r="M372" t="inlineStr"/>
     </row>
     <row r="373">
@@ -14284,11 +14306,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14321,11 +14339,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14358,11 +14372,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14395,11 +14405,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14432,11 +14438,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14469,11 +14471,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14506,11 +14504,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14543,11 +14537,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14580,11 +14570,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14617,11 +14603,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14654,11 +14636,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14691,11 +14669,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14728,11 +14702,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14765,11 +14735,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14802,11 +14768,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14839,11 +14801,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14876,11 +14834,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14913,11 +14867,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14950,11 +14900,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14987,11 +14933,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15024,11 +14966,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15061,11 +14999,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15098,11 +15032,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15135,11 +15065,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15172,11 +15098,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15209,11 +15131,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15246,11 +15164,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15283,11 +15197,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15320,11 +15230,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15357,11 +15263,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15394,11 +15296,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15431,11 +15329,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15468,11 +15362,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15505,11 +15395,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15542,11 +15428,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15579,11 +15461,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15616,11 +15494,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15653,11 +15527,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15690,11 +15560,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15727,11 +15593,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15764,11 +15626,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15801,11 +15659,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15834,15 +15688,11 @@
         <v>35860.67479762719</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15871,15 +15721,11 @@
         <v>38058.48319762719</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15912,11 +15758,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15945,15 +15787,11 @@
         <v>38387.9682991023</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15982,15 +15820,11 @@
         <v>40196.16792188342</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -16019,15 +15853,11 @@
         <v>41858.10282188342</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -16056,15 +15886,11 @@
         <v>42598.58222188341</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16093,15 +15919,11 @@
         <v>41489.27352188341</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16130,15 +15952,11 @@
         <v>41489.27352188341</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16167,15 +15985,11 @@
         <v>41324.34902188341</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16204,15 +16018,11 @@
         <v>41324.34902188341</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -16245,11 +16055,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16282,11 +16088,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16319,11 +16121,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16356,11 +16154,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16393,11 +16187,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16430,11 +16220,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16467,11 +16253,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16504,11 +16286,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16541,11 +16319,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16578,11 +16352,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16611,15 +16381,11 @@
         <v>39451.89240338311</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16648,15 +16414,11 @@
         <v>39091.97010338311</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16685,15 +16447,11 @@
         <v>39064.1894033831</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16722,15 +16480,11 @@
         <v>39415.58760338311</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16759,15 +16513,11 @@
         <v>41556.74140338311</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16796,15 +16546,11 @@
         <v>38800.67535044193</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16833,15 +16579,11 @@
         <v>39288.89485044193</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16870,15 +16612,11 @@
         <v>38859.54725044193</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16907,15 +16645,11 @@
         <v>39662.14595044193</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16944,15 +16678,11 @@
         <v>39150.39665044193</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16981,15 +16711,11 @@
         <v>39577.23835044193</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -17018,15 +16744,11 @@
         <v>39558.23835044193</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -17055,15 +16777,11 @@
         <v>40158.08585044193</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -17092,15 +16810,11 @@
         <v>38006.23485044193</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -17133,11 +16847,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -17170,11 +16880,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -17207,11 +16913,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -17244,11 +16946,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -17281,11 +16979,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -17318,11 +17012,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -17351,15 +17041,11 @@
         <v>37532.39305044193</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -17392,11 +17078,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17429,11 +17111,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17466,11 +17144,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17503,11 +17177,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17536,15 +17206,11 @@
         <v>35253.03205044192</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17573,15 +17239,11 @@
         <v>35225.94895044192</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17610,15 +17272,11 @@
         <v>35498.10495044192</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17647,15 +17305,11 @@
         <v>35498.10495044192</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17688,11 +17342,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17725,11 +17375,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17762,11 +17408,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17799,11 +17441,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17836,11 +17474,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17873,11 +17507,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17910,11 +17540,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17947,11 +17573,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17984,11 +17606,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -18021,11 +17639,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -18058,11 +17672,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -18095,11 +17705,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -18132,11 +17738,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -18169,11 +17771,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -18206,11 +17804,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -18243,11 +17837,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -18280,11 +17870,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -18317,11 +17903,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -18354,11 +17936,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -18391,11 +17969,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -18428,11 +18002,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -18465,11 +18035,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -18502,11 +18068,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -18539,11 +18101,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -18576,11 +18134,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18613,11 +18167,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -18650,11 +18200,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -18687,11 +18233,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -18724,11 +18266,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -18761,11 +18299,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -18798,11 +18332,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -18835,11 +18365,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -18872,11 +18398,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -18909,11 +18431,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -18946,11 +18464,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18983,11 +18497,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -19020,11 +18530,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -19057,11 +18563,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -19094,11 +18596,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -19131,11 +18629,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -19168,11 +18662,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -19205,11 +18695,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -19242,11 +18728,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -19279,11 +18761,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -19316,11 +18794,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -19353,11 +18827,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -19386,16 +18856,14 @@
         <v>50257.96331842484</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L511" t="inlineStr"/>
+      <c r="K511" t="inlineStr"/>
+      <c r="L511" t="n">
+        <v>1</v>
+      </c>
       <c r="M511" t="inlineStr"/>
     </row>
     <row r="512">
@@ -19652,7 +19120,7 @@
         <v>51854.02445218877</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19685,7 +19153,7 @@
         <v>52519.87375218877</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -19718,7 +19186,7 @@
         <v>54160.87841740617</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -19751,7 +19219,7 @@
         <v>52834.25768716958</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -19784,7 +19252,7 @@
         <v>52837.75668716958</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -19817,7 +19285,7 @@
         <v>52337.69718716958</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -19850,7 +19318,7 @@
         <v>52424.83828716958</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -19883,7 +19351,7 @@
         <v>52410.23128716958</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -19916,7 +19384,7 @@
         <v>52426.18128716957</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19949,7 +19417,7 @@
         <v>51621.90718716957</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19982,7 +19450,7 @@
         <v>51894.87968716957</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -20015,7 +19483,7 @@
         <v>52353.07968716957</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -20048,7 +19516,7 @@
         <v>52134.90808716957</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -20081,7 +19549,7 @@
         <v>52134.90808716957</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -20114,7 +19582,7 @@
         <v>51504.0359751509</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -20147,7 +19615,7 @@
         <v>51124.9695751509</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -20180,7 +19648,7 @@
         <v>50818.1151751509</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -20213,7 +19681,7 @@
         <v>50305.8841751509</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -20246,7 +19714,7 @@
         <v>50221.7468751509</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -20279,7 +19747,7 @@
         <v>49625.0791751509</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -20312,7 +19780,7 @@
         <v>50156.84706875462</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -20345,7 +19813,7 @@
         <v>49768.54563384617</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -20378,7 +19846,7 @@
         <v>48619.10663384618</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -20411,7 +19879,7 @@
         <v>48572.97503384617</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -20444,7 +19912,7 @@
         <v>49015.10443384617</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -20477,7 +19945,7 @@
         <v>48925.59563384617</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -20510,7 +19978,7 @@
         <v>48925.59563384617</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -20543,7 +20011,7 @@
         <v>49129.59283384617</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -20576,7 +20044,7 @@
         <v>46942.10873384617</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -20609,7 +20077,7 @@
         <v>48929.93653384616</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -20642,7 +20110,7 @@
         <v>49316.29363384617</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -20675,7 +20143,7 @@
         <v>49525.24813384617</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -20708,7 +20176,7 @@
         <v>49838.49343384617</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -20741,7 +20209,7 @@
         <v>49629.65713384617</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -20774,7 +20242,7 @@
         <v>49413.36843384617</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -20807,7 +20275,7 @@
         <v>49667.03483384617</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -20873,7 +20341,7 @@
         <v>50045.08543384617</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -20906,7 +20374,7 @@
         <v>49386.80853384618</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -20939,7 +20407,7 @@
         <v>48864.04903384618</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -20972,7 +20440,7 @@
         <v>49246.81213384617</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -21005,7 +20473,7 @@
         <v>49824.60013384617</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -21038,7 +20506,7 @@
         <v>49680.98863384617</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -21071,7 +20539,7 @@
         <v>49898.55713384617</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -21104,7 +20572,7 @@
         <v>49452.78863384618</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -21137,7 +20605,7 @@
         <v>51146.88023384618</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -21170,7 +20638,7 @@
         <v>51353.08023384617</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -21203,7 +20671,7 @@
         <v>51009.59563384617</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -21236,7 +20704,7 @@
         <v>51556.63763384617</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -21269,7 +20737,7 @@
         <v>52174.89393384617</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -21302,7 +20770,7 @@
         <v>51900.04363384617</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -21335,7 +20803,7 @@
         <v>53212.37863384617</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -21368,7 +20836,7 @@
         <v>52699.04683384617</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -21401,7 +20869,7 @@
         <v>53288.79543384617</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -21434,7 +20902,7 @@
         <v>51235.32303384617</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -21467,7 +20935,7 @@
         <v>51684.22913384617</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -21500,7 +20968,7 @@
         <v>51667.01923384617</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -21533,7 +21001,7 @@
         <v>50542.26458112778</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -21566,7 +21034,7 @@
         <v>51310.19218112779</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -21599,7 +21067,7 @@
         <v>52176.92228112779</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -21764,7 +21232,7 @@
         <v>52018.95898112778</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -27110,7 +26578,7 @@
         <v>59335.53288859999</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -27143,7 +26611,7 @@
         <v>59235.53288859999</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -27176,7 +26644,7 @@
         <v>59542.69658859999</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -27209,7 +26677,7 @@
         <v>60061.52868859999</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -27242,7 +26710,7 @@
         <v>60061.52868859999</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -27275,7 +26743,7 @@
         <v>60061.52868859999</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -27308,7 +26776,7 @@
         <v>59873.9925255085</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -27341,7 +26809,7 @@
         <v>60191.3326255085</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -27374,7 +26842,7 @@
         <v>60191.3326255085</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -27407,7 +26875,7 @@
         <v>60620.99552550851</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -33413,7 +32881,7 @@
         <v>80391.75028942214</v>
       </c>
       <c r="H936" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -33479,7 +32947,7 @@
         <v>82226.46865993421</v>
       </c>
       <c r="H938" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -33512,7 +32980,7 @@
         <v>82045.86395993421</v>
       </c>
       <c r="H939" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -33545,7 +33013,7 @@
         <v>82068.43075993421</v>
       </c>
       <c r="H940" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -33611,7 +33079,7 @@
         <v>82273.7800599342</v>
       </c>
       <c r="H942" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -33644,7 +33112,7 @@
         <v>82952.22719162435</v>
       </c>
       <c r="H943" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -33677,7 +33145,7 @@
         <v>86066.14616687299</v>
       </c>
       <c r="H944" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -33710,7 +33178,7 @@
         <v>88820.26534360509</v>
       </c>
       <c r="H945" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -33743,7 +33211,7 @@
         <v>86837.43684360509</v>
       </c>
       <c r="H946" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -33776,7 +33244,7 @@
         <v>86036.63884360509</v>
       </c>
       <c r="H947" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -33809,7 +33277,7 @@
         <v>86716.75774360509</v>
       </c>
       <c r="H948" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -33842,7 +33310,7 @@
         <v>87624.61674360509</v>
       </c>
       <c r="H949" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -33908,7 +33376,7 @@
         <v>83889.22164360509</v>
       </c>
       <c r="H951" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -33941,7 +33409,7 @@
         <v>84116.22154360509</v>
       </c>
       <c r="H952" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -33974,7 +33442,7 @@
         <v>85034.15064360508</v>
       </c>
       <c r="H953" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -34007,7 +33475,7 @@
         <v>85597.70214360509</v>
       </c>
       <c r="H954" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
@@ -34040,7 +33508,7 @@
         <v>85072.72614360509</v>
       </c>
       <c r="H955" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -34073,7 +33541,7 @@
         <v>85500.02304360509</v>
       </c>
       <c r="H956" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -34106,7 +33574,7 @@
         <v>84735.5495436051</v>
       </c>
       <c r="H957" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -34172,7 +33640,7 @@
         <v>83351.79824360511</v>
       </c>
       <c r="H959" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -34271,7 +33739,7 @@
         <v>85432.73544360511</v>
       </c>
       <c r="H962" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -34304,7 +33772,7 @@
         <v>83788.26644360511</v>
       </c>
       <c r="H963" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -34337,7 +33805,7 @@
         <v>80704.30144360512</v>
       </c>
       <c r="H964" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -34370,7 +33838,7 @@
         <v>81500.40604360512</v>
       </c>
       <c r="H965" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -34403,7 +33871,7 @@
         <v>83512.28704360512</v>
       </c>
       <c r="H966" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -34436,7 +33904,7 @@
         <v>82650.39464360512</v>
       </c>
       <c r="H967" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -34568,7 +34036,7 @@
         <v>85627.37184360511</v>
       </c>
       <c r="H971" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -34601,7 +34069,7 @@
         <v>85407.09234360511</v>
       </c>
       <c r="H972" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -34634,7 +34102,7 @@
         <v>86085.46744360511</v>
       </c>
       <c r="H973" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -34667,7 +34135,7 @@
         <v>85612.10744360511</v>
       </c>
       <c r="H974" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -34700,7 +34168,7 @@
         <v>86038.66244360511</v>
       </c>
       <c r="H975" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -34733,7 +34201,7 @@
         <v>86919.1883436051</v>
       </c>
       <c r="H976" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -34766,7 +34234,7 @@
         <v>86659.16704360511</v>
       </c>
       <c r="H977" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -34799,7 +34267,7 @@
         <v>87078.30444360511</v>
       </c>
       <c r="H978" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -35360,7 +34828,7 @@
         <v>83229.12444360515</v>
       </c>
       <c r="H995" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -35426,7 +34894,7 @@
         <v>82297.08464360515</v>
       </c>
       <c r="H997" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -35492,7 +34960,7 @@
         <v>82334.69344360515</v>
       </c>
       <c r="H999" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -35525,7 +34993,7 @@
         <v>82206.54984360516</v>
       </c>
       <c r="H1000" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -35558,7 +35026,7 @@
         <v>82206.54984360516</v>
       </c>
       <c r="H1001" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -35591,7 +35059,7 @@
         <v>82192.00694360516</v>
       </c>
       <c r="H1002" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
@@ -35624,7 +35092,7 @@
         <v>81765.73934360515</v>
       </c>
       <c r="H1003" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
@@ -35657,7 +35125,7 @@
         <v>82011.11574360514</v>
       </c>
       <c r="H1004" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
@@ -35690,7 +35158,7 @@
         <v>82248.51574360514</v>
       </c>
       <c r="H1005" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
@@ -35723,7 +35191,7 @@
         <v>83029.62574360514</v>
       </c>
       <c r="H1006" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
@@ -35756,7 +35224,7 @@
         <v>83029.62574360514</v>
       </c>
       <c r="H1007" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
@@ -35789,7 +35257,7 @@
         <v>82309.89799514908</v>
       </c>
       <c r="H1008" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
@@ -35822,7 +35290,7 @@
         <v>82578.37749514908</v>
       </c>
       <c r="H1009" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -35855,7 +35323,7 @@
         <v>82560.11359514907</v>
       </c>
       <c r="H1010" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
@@ -35888,7 +35356,7 @@
         <v>82660.11359514907</v>
       </c>
       <c r="H1011" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
@@ -36383,7 +35851,7 @@
         <v>82985.91189514905</v>
       </c>
       <c r="H1026" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
@@ -36515,7 +35983,7 @@
         <v>82497.89529514905</v>
       </c>
       <c r="H1030" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
@@ -36548,7 +36016,7 @@
         <v>82502.50299514904</v>
       </c>
       <c r="H1031" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
@@ -36713,7 +36181,7 @@
         <v>82335.95419514904</v>
       </c>
       <c r="H1036" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
@@ -36746,7 +36214,7 @@
         <v>82335.95419514904</v>
       </c>
       <c r="H1037" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
@@ -36779,7 +36247,7 @@
         <v>82618.36229514904</v>
       </c>
       <c r="H1038" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -36812,7 +36280,7 @@
         <v>82618.36229514904</v>
       </c>
       <c r="H1039" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
@@ -36878,7 +36346,7 @@
         <v>82454.53379514905</v>
       </c>
       <c r="H1041" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
@@ -36911,7 +36379,7 @@
         <v>82454.53379514905</v>
       </c>
       <c r="H1042" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
@@ -36944,7 +36412,7 @@
         <v>82361.04379514905</v>
       </c>
       <c r="H1043" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
@@ -37109,7 +36577,7 @@
         <v>80941.79829514904</v>
       </c>
       <c r="H1048" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
@@ -37604,7 +37072,7 @@
         <v>77872.08628731265</v>
       </c>
       <c r="H1063" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
@@ -37736,7 +37204,7 @@
         <v>79324.51288731265</v>
       </c>
       <c r="H1067" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
@@ -37769,7 +37237,7 @@
         <v>79324.51288731265</v>
       </c>
       <c r="H1068" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
@@ -37802,7 +37270,7 @@
         <v>79069.82008731265</v>
       </c>
       <c r="H1069" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
@@ -37835,7 +37303,7 @@
         <v>79296.60758731265</v>
       </c>
       <c r="H1070" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
@@ -37868,7 +37336,7 @@
         <v>79668.04378731265</v>
       </c>
       <c r="H1071" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
@@ -37901,7 +37369,7 @@
         <v>79863.54118731264</v>
       </c>
       <c r="H1072" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
@@ -37934,7 +37402,7 @@
         <v>79743.97818731265</v>
       </c>
       <c r="H1073" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
@@ -37967,7 +37435,7 @@
         <v>80045.68998731265</v>
       </c>
       <c r="H1074" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
@@ -38000,7 +37468,7 @@
         <v>80145.68998731265</v>
       </c>
       <c r="H1075" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
@@ -38033,7 +37501,7 @@
         <v>79895.60838731265</v>
       </c>
       <c r="H1076" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
@@ -38066,7 +37534,7 @@
         <v>79895.60838731265</v>
       </c>
       <c r="H1077" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
@@ -38099,7 +37567,7 @@
         <v>79512.85843857923</v>
       </c>
       <c r="H1078" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
@@ -38132,7 +37600,7 @@
         <v>79512.85843857923</v>
       </c>
       <c r="H1079" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
@@ -38165,7 +37633,7 @@
         <v>80159.83713857924</v>
       </c>
       <c r="H1080" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
@@ -38198,7 +37666,7 @@
         <v>80212.80063857924</v>
       </c>
       <c r="H1081" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
@@ -38231,7 +37699,7 @@
         <v>80271.55963857925</v>
       </c>
       <c r="H1082" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
@@ -38264,7 +37732,7 @@
         <v>81120.69823857925</v>
       </c>
       <c r="H1083" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
@@ -38297,7 +37765,7 @@
         <v>81464.07303857926</v>
       </c>
       <c r="H1084" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
@@ -38957,7 +38425,7 @@
         <v>80139.45485702141</v>
       </c>
       <c r="H1104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1104" t="inlineStr"/>
       <c r="J1104" t="inlineStr"/>
@@ -38990,7 +38458,7 @@
         <v>79934.26425060048</v>
       </c>
       <c r="H1105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1105" t="inlineStr"/>
       <c r="J1105" t="inlineStr"/>
@@ -39023,7 +38491,7 @@
         <v>79684.60615060048</v>
       </c>
       <c r="H1106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1106" t="inlineStr"/>
       <c r="J1106" t="inlineStr"/>
@@ -39056,7 +38524,7 @@
         <v>79553.61525060047</v>
       </c>
       <c r="H1107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1107" t="inlineStr"/>
       <c r="J1107" t="inlineStr"/>
@@ -39089,7 +38557,7 @@
         <v>79888.86715060048</v>
       </c>
       <c r="H1108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1108" t="inlineStr"/>
       <c r="J1108" t="inlineStr"/>
@@ -39122,7 +38590,7 @@
         <v>79888.86715060048</v>
       </c>
       <c r="H1109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1109" t="inlineStr"/>
       <c r="J1109" t="inlineStr"/>
@@ -39155,7 +38623,7 @@
         <v>79769.19865060048</v>
       </c>
       <c r="H1110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="inlineStr"/>
@@ -39188,7 +38656,7 @@
         <v>79900.67735060048</v>
       </c>
       <c r="H1111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1111" t="inlineStr"/>
       <c r="J1111" t="inlineStr"/>
@@ -39221,7 +38689,7 @@
         <v>79844.14735060048</v>
       </c>
       <c r="H1112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1112" t="inlineStr"/>
       <c r="J1112" t="inlineStr"/>
@@ -39254,7 +38722,7 @@
         <v>79856.17325060048</v>
       </c>
       <c r="H1113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1113" t="inlineStr"/>
       <c r="J1113" t="inlineStr"/>
@@ -39287,7 +38755,7 @@
         <v>79918.25605060048</v>
       </c>
       <c r="H1114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1114" t="inlineStr"/>
       <c r="J1114" t="inlineStr"/>
@@ -39320,7 +38788,7 @@
         <v>80727.17525060049</v>
       </c>
       <c r="H1115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1115" t="inlineStr"/>
       <c r="J1115" t="inlineStr"/>
@@ -39353,7 +38821,7 @@
         <v>80727.17525060049</v>
       </c>
       <c r="H1116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1116" t="inlineStr"/>
       <c r="J1116" t="inlineStr"/>
@@ -39386,7 +38854,7 @@
         <v>80727.17525060049</v>
       </c>
       <c r="H1117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1117" t="inlineStr"/>
       <c r="J1117" t="inlineStr"/>
@@ -39452,7 +38920,7 @@
         <v>80472.92205060048</v>
       </c>
       <c r="H1119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1119" t="inlineStr"/>
       <c r="J1119" t="inlineStr"/>
@@ -39518,7 +38986,7 @@
         <v>80528.02095060048</v>
       </c>
       <c r="H1121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1121" t="inlineStr"/>
       <c r="J1121" t="inlineStr"/>
@@ -39551,7 +39019,7 @@
         <v>80268.53865060047</v>
       </c>
       <c r="H1122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1122" t="inlineStr"/>
       <c r="J1122" t="inlineStr"/>
@@ -39584,7 +39052,7 @@
         <v>80268.53865060047</v>
       </c>
       <c r="H1123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1123" t="inlineStr"/>
       <c r="J1123" t="inlineStr"/>
@@ -39716,7 +39184,7 @@
         <v>80213.42525060047</v>
       </c>
       <c r="H1127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1127" t="inlineStr"/>
       <c r="J1127" t="inlineStr"/>
@@ -39749,7 +39217,7 @@
         <v>80310.42525060047</v>
       </c>
       <c r="H1128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1128" t="inlineStr"/>
       <c r="J1128" t="inlineStr"/>
@@ -40145,7 +39613,7 @@
         <v>81021.31501907684</v>
       </c>
       <c r="H1140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1140" t="inlineStr"/>
       <c r="J1140" t="inlineStr"/>
@@ -40277,7 +39745,7 @@
         <v>80660.55841907684</v>
       </c>
       <c r="H1144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1144" t="inlineStr"/>
       <c r="J1144" t="inlineStr"/>
@@ -40310,7 +39778,7 @@
         <v>80660.55841907684</v>
       </c>
       <c r="H1145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1145" t="inlineStr"/>
       <c r="J1145" t="inlineStr"/>
@@ -40343,7 +39811,7 @@
         <v>79758.62051907684</v>
       </c>
       <c r="H1146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1146" t="inlineStr"/>
       <c r="J1146" t="inlineStr"/>
@@ -40376,7 +39844,7 @@
         <v>80720.22741907684</v>
       </c>
       <c r="H1147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1147" t="inlineStr"/>
       <c r="J1147" t="inlineStr"/>
@@ -40409,7 +39877,7 @@
         <v>81251.93691907683</v>
       </c>
       <c r="H1148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1148" t="inlineStr"/>
       <c r="J1148" t="inlineStr"/>
@@ -40442,7 +39910,7 @@
         <v>81104.68511907684</v>
       </c>
       <c r="H1149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1149" t="inlineStr"/>
       <c r="J1149" t="inlineStr"/>
@@ -40475,7 +39943,7 @@
         <v>81367.26151907684</v>
       </c>
       <c r="H1150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1150" t="inlineStr"/>
       <c r="J1150" t="inlineStr"/>
@@ -40508,7 +39976,7 @@
         <v>81426.7061783228</v>
       </c>
       <c r="H1151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1151" t="inlineStr"/>
       <c r="J1151" t="inlineStr"/>
@@ -40541,7 +40009,7 @@
         <v>81834.08807832279</v>
       </c>
       <c r="H1152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1152" t="inlineStr"/>
       <c r="J1152" t="inlineStr"/>
@@ -40574,7 +40042,7 @@
         <v>81967.55287832279</v>
       </c>
       <c r="H1153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1153" t="inlineStr"/>
       <c r="J1153" t="inlineStr"/>
@@ -40607,7 +40075,7 @@
         <v>82377.3973783228</v>
       </c>
       <c r="H1154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1154" t="inlineStr"/>
       <c r="J1154" t="inlineStr"/>
@@ -40640,7 +40108,7 @@
         <v>82094.5107783228</v>
       </c>
       <c r="H1155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1155" t="inlineStr"/>
       <c r="J1155" t="inlineStr"/>
@@ -40673,7 +40141,7 @@
         <v>82424.9647783228</v>
       </c>
       <c r="H1156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1156" t="inlineStr"/>
       <c r="J1156" t="inlineStr"/>
@@ -40706,7 +40174,7 @@
         <v>82043.7370783228</v>
       </c>
       <c r="H1157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1157" t="inlineStr"/>
       <c r="J1157" t="inlineStr"/>
@@ -40739,7 +40207,7 @@
         <v>81940.7370783228</v>
       </c>
       <c r="H1158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1158" t="inlineStr"/>
       <c r="J1158" t="inlineStr"/>
@@ -40772,7 +40240,7 @@
         <v>82206.7975783228</v>
       </c>
       <c r="H1159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1159" t="inlineStr"/>
       <c r="J1159" t="inlineStr"/>
@@ -40805,7 +40273,7 @@
         <v>82449.9740783228</v>
       </c>
       <c r="H1160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1160" t="inlineStr"/>
       <c r="J1160" t="inlineStr"/>
@@ -40838,7 +40306,7 @@
         <v>84398.41321150733</v>
       </c>
       <c r="H1161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1161" t="inlineStr"/>
       <c r="J1161" t="inlineStr"/>
@@ -41201,7 +40669,7 @@
         <v>78568.15201150732</v>
       </c>
       <c r="H1172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1172" t="inlineStr"/>
       <c r="J1172" t="inlineStr"/>
@@ -41234,7 +40702,7 @@
         <v>79681.33511150732</v>
       </c>
       <c r="H1173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1173" t="inlineStr"/>
       <c r="J1173" t="inlineStr"/>
@@ -41267,7 +40735,7 @@
         <v>79617.47391150732</v>
       </c>
       <c r="H1174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1174" t="inlineStr"/>
       <c r="J1174" t="inlineStr"/>
@@ -41300,7 +40768,7 @@
         <v>80045.54401150731</v>
       </c>
       <c r="H1175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1175" t="inlineStr"/>
       <c r="J1175" t="inlineStr"/>
@@ -41333,7 +40801,7 @@
         <v>81458.70051150731</v>
       </c>
       <c r="H1176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1176" t="inlineStr"/>
       <c r="J1176" t="inlineStr"/>
@@ -41366,7 +40834,7 @@
         <v>81414.8903115073</v>
       </c>
       <c r="H1177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1177" t="inlineStr"/>
       <c r="J1177" t="inlineStr"/>
@@ -41399,7 +40867,7 @@
         <v>80878.73871150731</v>
       </c>
       <c r="H1178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1178" t="inlineStr"/>
       <c r="J1178" t="inlineStr"/>
@@ -41432,7 +40900,7 @@
         <v>80878.73871150731</v>
       </c>
       <c r="H1179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1179" t="inlineStr"/>
       <c r="J1179" t="inlineStr"/>
@@ -41465,7 +40933,7 @@
         <v>81105.43261150731</v>
       </c>
       <c r="H1180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1180" t="inlineStr"/>
       <c r="J1180" t="inlineStr"/>
@@ -41498,7 +40966,7 @@
         <v>80852.8756115073</v>
       </c>
       <c r="H1181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1181" t="inlineStr"/>
       <c r="J1181" t="inlineStr"/>
@@ -41531,7 +40999,7 @@
         <v>81052.8756115073</v>
       </c>
       <c r="H1182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1182" t="inlineStr"/>
       <c r="J1182" t="inlineStr"/>
@@ -41564,7 +41032,7 @@
         <v>81280.81631150731</v>
       </c>
       <c r="H1183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1183" t="inlineStr"/>
       <c r="J1183" t="inlineStr"/>
@@ -41597,7 +41065,7 @@
         <v>81685.81431150732</v>
       </c>
       <c r="H1184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1184" t="inlineStr"/>
       <c r="J1184" t="inlineStr"/>
@@ -41630,7 +41098,7 @@
         <v>81177.43311150731</v>
       </c>
       <c r="H1185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1185" t="inlineStr"/>
       <c r="J1185" t="inlineStr"/>
@@ -41663,7 +41131,7 @@
         <v>81279.43311150731</v>
       </c>
       <c r="H1186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1186" t="inlineStr"/>
       <c r="J1186" t="inlineStr"/>
@@ -41696,7 +41164,7 @@
         <v>81720.95701150731</v>
       </c>
       <c r="H1187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1187" t="inlineStr"/>
       <c r="J1187" t="inlineStr"/>
@@ -41729,7 +41197,7 @@
         <v>81227.53281150732</v>
       </c>
       <c r="H1188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1188" t="inlineStr"/>
       <c r="J1188" t="inlineStr"/>
@@ -41740,6 +41208,6 @@
       <c r="M1188" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest ETC.xlsx
+++ b/BackTest/2020-01-16 BackTest ETC.xlsx
@@ -1120,11 +1120,9 @@
         <v>9436.735508606393</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>7110</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
@@ -1159,11 +1157,9 @@
         <v>9319.615608606393</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>7090</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
@@ -1198,11 +1194,9 @@
         <v>10524.73450860639</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>7045</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
@@ -1237,11 +1231,9 @@
         <v>10406.59420860639</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>7060</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
@@ -1424,11 +1416,9 @@
         <v>8842.274368923854</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>6995</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
@@ -1574,9 +1564,11 @@
         <v>5826.255968923855</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>6915</v>
+      </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
@@ -1611,9 +1603,11 @@
         <v>4488.524150598873</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>6910</v>
+      </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -1648,9 +1642,11 @@
         <v>5266.095150598873</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>6885</v>
+      </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
@@ -1685,9 +1681,11 @@
         <v>5728.409650598874</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>6920</v>
+      </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
@@ -1722,9 +1720,11 @@
         <v>6501.709650598874</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>6950</v>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
@@ -1759,9 +1759,11 @@
         <v>6152.693650598874</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>6970</v>
+      </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
@@ -1796,9 +1798,11 @@
         <v>5608.579550598874</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>6955</v>
+      </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
@@ -2067,9 +2071,11 @@
         <v>7025.488250598874</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>7050</v>
+      </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -2104,9 +2110,11 @@
         <v>7197.486350598874</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>7050</v>
+      </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -2141,9 +2149,11 @@
         <v>6914.466950598874</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>7090</v>
+      </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
@@ -2178,9 +2188,11 @@
         <v>8281.421139252856</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>7065</v>
+      </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
@@ -6322,11 +6334,9 @@
         <v>11303.73451663454</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>7095</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
@@ -6361,11 +6371,9 @@
         <v>11539.04491663454</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>7145</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
@@ -6400,11 +6408,9 @@
         <v>11336.26361663454</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>7165</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
@@ -6439,11 +6445,9 @@
         <v>11446.26361663454</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>7160</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
@@ -6478,11 +6482,9 @@
         <v>11558.63231663454</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>7165</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
@@ -6517,11 +6519,9 @@
         <v>11357.63231663454</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>7195</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
@@ -6556,11 +6556,9 @@
         <v>11442.71911663454</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>7155</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
@@ -6595,11 +6593,9 @@
         <v>11442.71911663454</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>7185</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
@@ -6745,11 +6741,9 @@
         <v>11618.42971663454</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>7150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
@@ -6784,11 +6778,9 @@
         <v>11845.18141663454</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>7105</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
@@ -6823,11 +6815,9 @@
         <v>11652.90871663455</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>7140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
@@ -6862,11 +6852,9 @@
         <v>11692.81371663455</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>7090</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
@@ -6901,11 +6889,9 @@
         <v>11529.97161663455</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>7115</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
@@ -6940,11 +6926,9 @@
         <v>11529.97161663455</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>7090</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
@@ -6979,11 +6963,9 @@
         <v>11529.97161663455</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>7090</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
@@ -7018,11 +7000,9 @@
         <v>11474.02231663455</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>7090</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
@@ -7057,11 +7037,9 @@
         <v>11432.26751663455</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>7070</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
@@ -7096,11 +7074,9 @@
         <v>11861.66751663454</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>7060</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
@@ -7135,11 +7111,9 @@
         <v>11738.32981663454</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>7125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
@@ -7174,11 +7148,9 @@
         <v>11548.82321663454</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>7120</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
@@ -7213,11 +7185,9 @@
         <v>11662.62321663454</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>7100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
@@ -7252,11 +7222,9 @@
         <v>11775.32321663454</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>7120</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
@@ -7291,11 +7259,9 @@
         <v>11921.55751663454</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>7125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
@@ -7330,11 +7296,9 @@
         <v>11820.65751663454</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>7145</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
@@ -7369,11 +7333,9 @@
         <v>11820.65751663454</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>7130</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
@@ -7408,11 +7370,9 @@
         <v>11188.15911663454</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>7130</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
@@ -7447,11 +7407,9 @@
         <v>11307.58911663454</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>7125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
@@ -7486,11 +7444,9 @@
         <v>11407.58911663454</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>7145</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
@@ -7525,11 +7481,9 @@
         <v>11612.58001663455</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>7150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
@@ -8563,11 +8517,9 @@
         <v>13299.46751663455</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>7125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
@@ -8602,11 +8554,9 @@
         <v>13340.03651663455</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>7090</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
@@ -8641,11 +8591,9 @@
         <v>13083.76111663455</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>7105</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
@@ -8680,11 +8628,9 @@
         <v>13083.76111663455</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>7090</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
@@ -8719,11 +8665,9 @@
         <v>12799.56881663455</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>7090</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
@@ -8758,11 +8702,9 @@
         <v>13059.01491663455</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>7085</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
@@ -8836,11 +8778,9 @@
         <v>13192.24861663455</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>7105</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
@@ -9343,11 +9283,9 @@
         <v>13386.38931663455</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>7145</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
@@ -9382,11 +9320,9 @@
         <v>13428.76781663455</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>7155</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
@@ -9421,11 +9357,9 @@
         <v>13288.85571663455</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>7160</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
@@ -9460,11 +9394,9 @@
         <v>13550.88491663455</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>7140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
@@ -9499,11 +9431,9 @@
         <v>13546.81181663455</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>7145</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
@@ -9538,11 +9468,9 @@
         <v>13446.01321663455</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>7140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
@@ -9577,11 +9505,9 @@
         <v>13371.75761663455</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>7120</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
@@ -9616,11 +9542,9 @@
         <v>13577.75761663455</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>7080</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
@@ -9655,11 +9579,9 @@
         <v>13567.95761663455</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>7125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
@@ -9694,11 +9616,9 @@
         <v>13743.61811663455</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>7110</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
@@ -9733,11 +9653,9 @@
         <v>13743.61811663455</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>7135</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
@@ -9772,11 +9690,9 @@
         <v>13761.22771663455</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>7135</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
@@ -9811,11 +9727,9 @@
         <v>13782.15111663455</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>7175</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
@@ -9850,11 +9764,9 @@
         <v>13755.34741663455</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>7200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
@@ -9889,11 +9801,9 @@
         <v>13855.34741663455</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>7195</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
@@ -10076,11 +9986,9 @@
         <v>13318.70931663455</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>7110</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
@@ -10115,11 +10023,9 @@
         <v>13649.70931663455</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>7170</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
@@ -10154,11 +10060,9 @@
         <v>13502.46981663455</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>7195</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
@@ -10193,11 +10097,9 @@
         <v>13537.91761663455</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>7180</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
@@ -10898,11 +10800,9 @@
         <v>12599.61153068184</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>7150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
@@ -14267,16 +14167,18 @@
         <v>13405.27851335753</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L372" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L372" t="n">
+        <v>1</v>
+      </c>
       <c r="M372" t="inlineStr"/>
     </row>
     <row r="373">
@@ -14306,7 +14208,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14339,7 +14245,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14372,7 +14282,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14405,7 +14319,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14438,7 +14356,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14471,7 +14393,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14504,7 +14430,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14537,7 +14467,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14570,7 +14504,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14603,7 +14541,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14636,7 +14578,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14669,7 +14615,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14702,7 +14652,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14735,7 +14689,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14768,7 +14726,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14801,7 +14763,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14834,7 +14800,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14867,7 +14837,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14900,7 +14874,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14933,7 +14911,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14966,7 +14948,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14999,7 +14985,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15032,7 +15022,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15065,7 +15059,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15098,7 +15096,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15131,7 +15133,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15164,7 +15170,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15197,7 +15207,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15230,7 +15244,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15263,7 +15281,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15296,7 +15318,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15329,7 +15355,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15362,7 +15392,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15395,7 +15429,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15428,7 +15466,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15461,7 +15503,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15494,7 +15540,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15527,7 +15577,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15560,7 +15614,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15593,7 +15651,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15626,7 +15688,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15659,7 +15725,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15688,11 +15758,15 @@
         <v>35860.67479762719</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15721,11 +15795,15 @@
         <v>38058.48319762719</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15758,7 +15836,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15787,11 +15869,15 @@
         <v>38387.9682991023</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15820,11 +15906,15 @@
         <v>40196.16792188342</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15853,11 +15943,15 @@
         <v>41858.10282188342</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15886,11 +15980,15 @@
         <v>42598.58222188341</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15919,11 +16017,15 @@
         <v>41489.27352188341</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15952,11 +16054,15 @@
         <v>41489.27352188341</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15985,11 +16091,15 @@
         <v>41324.34902188341</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16018,11 +16128,15 @@
         <v>41324.34902188341</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -16055,7 +16169,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16088,7 +16206,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16121,7 +16243,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16154,7 +16280,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16187,7 +16317,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16220,7 +16354,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16253,7 +16391,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16286,7 +16428,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16319,7 +16465,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16352,7 +16502,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16381,11 +16535,15 @@
         <v>39451.89240338311</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16414,11 +16572,15 @@
         <v>39091.97010338311</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16447,11 +16609,15 @@
         <v>39064.1894033831</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16480,11 +16646,15 @@
         <v>39415.58760338311</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16513,11 +16683,15 @@
         <v>41556.74140338311</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16546,11 +16720,15 @@
         <v>38800.67535044193</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16579,11 +16757,15 @@
         <v>39288.89485044193</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16612,11 +16794,15 @@
         <v>38859.54725044193</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16645,11 +16831,15 @@
         <v>39662.14595044193</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16678,11 +16868,15 @@
         <v>39150.39665044193</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16711,11 +16905,15 @@
         <v>39577.23835044193</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16744,11 +16942,15 @@
         <v>39558.23835044193</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16777,11 +16979,15 @@
         <v>40158.08585044193</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16810,11 +17016,15 @@
         <v>38006.23485044193</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16847,7 +17057,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16880,7 +17094,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16913,7 +17131,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16946,7 +17168,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16979,7 +17205,11 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -17012,7 +17242,11 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -17041,11 +17275,15 @@
         <v>37532.39305044193</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -17078,7 +17316,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17111,7 +17353,11 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17144,7 +17390,11 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17177,7 +17427,11 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17206,11 +17460,15 @@
         <v>35253.03205044192</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17239,11 +17497,15 @@
         <v>35225.94895044192</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17272,11 +17534,15 @@
         <v>35498.10495044192</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17305,11 +17571,15 @@
         <v>35498.10495044192</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17342,7 +17612,11 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17375,7 +17649,11 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17408,7 +17686,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17441,7 +17723,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17474,7 +17760,11 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17507,7 +17797,11 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17540,7 +17834,11 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17573,7 +17871,11 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17606,7 +17908,11 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17639,7 +17945,11 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17672,7 +17982,11 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17705,7 +18019,11 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17738,7 +18056,11 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17771,7 +18093,11 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17804,7 +18130,11 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17837,7 +18167,11 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17870,7 +18204,11 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17903,7 +18241,11 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17936,7 +18278,11 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17969,7 +18315,11 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -18002,7 +18352,11 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -18035,7 +18389,11 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -18068,7 +18426,11 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -18097,14 +18459,16 @@
         <v>53747.2038178368</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
-      <c r="L488" t="n">
-        <v>1</v>
-      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L488" t="inlineStr"/>
       <c r="M488" t="inlineStr"/>
     </row>
     <row r="489">
@@ -18130,7 +18494,7 @@
         <v>53747.2038178368</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -18163,7 +18527,7 @@
         <v>53747.2038178368</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -18196,7 +18560,7 @@
         <v>52491.81611525398</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -18229,7 +18593,7 @@
         <v>51416.27541525399</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -18262,7 +18626,7 @@
         <v>51349.12151525399</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -18295,7 +18659,7 @@
         <v>51714.95221684129</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -18328,7 +18692,7 @@
         <v>51477.60481684129</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -18361,7 +18725,7 @@
         <v>51723.52441684129</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -18394,7 +18758,7 @@
         <v>51724.92441684129</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -18427,7 +18791,7 @@
         <v>51064.04641684129</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -18460,7 +18824,7 @@
         <v>51543.00041684129</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -18493,7 +18857,7 @@
         <v>51201.10274316951</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -18526,7 +18890,7 @@
         <v>50925.42734316951</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -18559,7 +18923,7 @@
         <v>49807.17144316951</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -18592,7 +18956,7 @@
         <v>50236.11584316951</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -18625,7 +18989,7 @@
         <v>48128.49843854318</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -18658,7 +19022,7 @@
         <v>47638.33283854318</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -18691,7 +19055,7 @@
         <v>48210.34413854318</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -18724,7 +19088,7 @@
         <v>48795.09643854318</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18757,7 +19121,7 @@
         <v>49048.77243854318</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -18790,7 +19154,7 @@
         <v>50390.55521842484</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -18823,7 +19187,7 @@
         <v>50257.96331842484</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -18856,7 +19220,7 @@
         <v>50257.96331842484</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18889,7 +19253,7 @@
         <v>50484.86551842483</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18922,7 +19286,7 @@
         <v>50265.42791842484</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18955,7 +19319,7 @@
         <v>50366.42621842484</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -18988,7 +19352,7 @@
         <v>50366.42621842484</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -19021,7 +19385,7 @@
         <v>50507.55331842483</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -19054,7 +19418,7 @@
         <v>51548.40621842483</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -19087,7 +19451,7 @@
         <v>52308.59605218878</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -19120,7 +19484,7 @@
         <v>51854.02445218877</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19153,7 +19517,7 @@
         <v>52519.87375218877</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -19186,7 +19550,7 @@
         <v>54160.87841740617</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -19219,7 +19583,7 @@
         <v>52834.25768716958</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -19252,7 +19616,7 @@
         <v>52837.75668716958</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -19285,7 +19649,7 @@
         <v>52337.69718716958</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -19318,7 +19682,7 @@
         <v>52424.83828716958</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -19351,7 +19715,7 @@
         <v>52410.23128716958</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -19384,7 +19748,7 @@
         <v>52426.18128716957</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19417,7 +19781,7 @@
         <v>51621.90718716957</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19450,7 +19814,7 @@
         <v>51894.87968716957</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19483,7 +19847,7 @@
         <v>52353.07968716957</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -19516,7 +19880,7 @@
         <v>52134.90808716957</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19549,7 +19913,7 @@
         <v>52134.90808716957</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -19582,7 +19946,7 @@
         <v>51504.0359751509</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19615,7 +19979,7 @@
         <v>51124.9695751509</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19648,7 +20012,7 @@
         <v>50818.1151751509</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19681,7 +20045,7 @@
         <v>50305.8841751509</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19714,7 +20078,7 @@
         <v>50221.7468751509</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19747,7 +20111,7 @@
         <v>49625.0791751509</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19780,7 +20144,7 @@
         <v>50156.84706875462</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19813,7 +20177,7 @@
         <v>49768.54563384617</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19846,7 +20210,7 @@
         <v>48619.10663384618</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -26578,7 +26942,7 @@
         <v>59335.53288859999</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -26611,7 +26975,7 @@
         <v>59235.53288859999</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -26644,7 +27008,7 @@
         <v>59542.69658859999</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -26677,7 +27041,7 @@
         <v>60061.52868859999</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -26710,7 +27074,7 @@
         <v>60061.52868859999</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -26743,7 +27107,7 @@
         <v>60061.52868859999</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -26776,7 +27140,7 @@
         <v>59873.9925255085</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -26809,7 +27173,7 @@
         <v>60191.3326255085</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -26842,7 +27206,7 @@
         <v>60191.3326255085</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -26875,7 +27239,7 @@
         <v>60620.99552550851</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -32947,7 +33311,7 @@
         <v>82226.46865993421</v>
       </c>
       <c r="H938" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -32980,7 +33344,7 @@
         <v>82045.86395993421</v>
       </c>
       <c r="H939" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -33013,7 +33377,7 @@
         <v>82068.43075993421</v>
       </c>
       <c r="H940" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -33046,7 +33410,7 @@
         <v>82152.99895993421</v>
       </c>
       <c r="H941" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -33079,7 +33443,7 @@
         <v>82273.7800599342</v>
       </c>
       <c r="H942" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -33112,7 +33476,7 @@
         <v>82952.22719162435</v>
       </c>
       <c r="H943" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -33145,7 +33509,7 @@
         <v>86066.14616687299</v>
       </c>
       <c r="H944" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -33178,7 +33542,7 @@
         <v>88820.26534360509</v>
       </c>
       <c r="H945" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -33211,7 +33575,7 @@
         <v>86837.43684360509</v>
       </c>
       <c r="H946" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -33244,7 +33608,7 @@
         <v>86036.63884360509</v>
       </c>
       <c r="H947" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -33277,7 +33641,7 @@
         <v>86716.75774360509</v>
       </c>
       <c r="H948" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -33310,7 +33674,7 @@
         <v>87624.61674360509</v>
       </c>
       <c r="H949" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -33343,7 +33707,7 @@
         <v>84212.27034360509</v>
       </c>
       <c r="H950" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -33376,7 +33740,7 @@
         <v>83889.22164360509</v>
       </c>
       <c r="H951" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -33409,7 +33773,7 @@
         <v>84116.22154360509</v>
       </c>
       <c r="H952" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -33442,7 +33806,7 @@
         <v>85034.15064360508</v>
       </c>
       <c r="H953" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -33475,7 +33839,7 @@
         <v>85597.70214360509</v>
       </c>
       <c r="H954" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
@@ -33508,7 +33872,7 @@
         <v>85072.72614360509</v>
       </c>
       <c r="H955" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -33541,7 +33905,7 @@
         <v>85500.02304360509</v>
       </c>
       <c r="H956" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -33574,7 +33938,7 @@
         <v>84735.5495436051</v>
       </c>
       <c r="H957" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -33607,7 +33971,7 @@
         <v>84874.0873436051</v>
       </c>
       <c r="H958" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -33640,7 +34004,7 @@
         <v>83351.79824360511</v>
       </c>
       <c r="H959" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -33673,7 +34037,7 @@
         <v>88738.18154360511</v>
       </c>
       <c r="H960" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -33706,7 +34070,7 @@
         <v>84884.71984360511</v>
       </c>
       <c r="H961" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -33739,7 +34103,7 @@
         <v>85432.73544360511</v>
       </c>
       <c r="H962" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -33772,7 +34136,7 @@
         <v>83788.26644360511</v>
       </c>
       <c r="H963" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -33805,7 +34169,7 @@
         <v>80704.30144360512</v>
       </c>
       <c r="H964" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -33838,7 +34202,7 @@
         <v>81500.40604360512</v>
       </c>
       <c r="H965" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -33871,7 +34235,7 @@
         <v>83512.28704360512</v>
       </c>
       <c r="H966" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -33904,7 +34268,7 @@
         <v>82650.39464360512</v>
       </c>
       <c r="H967" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -33937,7 +34301,7 @@
         <v>82073.94094360512</v>
       </c>
       <c r="H968" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
@@ -34003,7 +34367,7 @@
         <v>83687.45654360512</v>
       </c>
       <c r="H970" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -34036,7 +34400,7 @@
         <v>85627.37184360511</v>
       </c>
       <c r="H971" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -34069,7 +34433,7 @@
         <v>85407.09234360511</v>
       </c>
       <c r="H972" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -34102,7 +34466,7 @@
         <v>86085.46744360511</v>
       </c>
       <c r="H973" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -34135,7 +34499,7 @@
         <v>85612.10744360511</v>
       </c>
       <c r="H974" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -34168,7 +34532,7 @@
         <v>86038.66244360511</v>
       </c>
       <c r="H975" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -34300,7 +34664,7 @@
         <v>86724.79624360512</v>
       </c>
       <c r="H979" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -34333,7 +34697,7 @@
         <v>86665.42624360512</v>
       </c>
       <c r="H980" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -34366,7 +34730,7 @@
         <v>86239.41964360513</v>
       </c>
       <c r="H981" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -34399,7 +34763,7 @@
         <v>82626.41954360512</v>
       </c>
       <c r="H982" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -34432,7 +34796,7 @@
         <v>82994.07704360512</v>
       </c>
       <c r="H983" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -34465,7 +34829,7 @@
         <v>83522.90204360512</v>
       </c>
       <c r="H984" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -34498,7 +34862,7 @@
         <v>82428.29924360513</v>
       </c>
       <c r="H985" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -34531,7 +34895,7 @@
         <v>82673.90254360513</v>
       </c>
       <c r="H986" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -34564,7 +34928,7 @@
         <v>84495.95784360514</v>
       </c>
       <c r="H987" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -34597,7 +34961,7 @@
         <v>84744.18224360514</v>
       </c>
       <c r="H988" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -34630,7 +34994,7 @@
         <v>85202.40414360515</v>
       </c>
       <c r="H989" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -34663,7 +35027,7 @@
         <v>85452.00304360515</v>
       </c>
       <c r="H990" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -34696,7 +35060,7 @@
         <v>84652.51464360514</v>
       </c>
       <c r="H991" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -34729,7 +35093,7 @@
         <v>83553.53004360515</v>
       </c>
       <c r="H992" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -34762,7 +35126,7 @@
         <v>83132.34054360515</v>
       </c>
       <c r="H993" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -34795,7 +35159,7 @@
         <v>83253.34054360515</v>
       </c>
       <c r="H994" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
@@ -34828,7 +35192,7 @@
         <v>83229.12444360515</v>
       </c>
       <c r="H995" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -34861,7 +35225,7 @@
         <v>83326.76304360515</v>
       </c>
       <c r="H996" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -34894,7 +35258,7 @@
         <v>82297.08464360515</v>
       </c>
       <c r="H997" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -34927,7 +35291,7 @@
         <v>82334.69344360515</v>
       </c>
       <c r="H998" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -34960,7 +35324,7 @@
         <v>82334.69344360515</v>
       </c>
       <c r="H999" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -35158,7 +35522,7 @@
         <v>82248.51574360514</v>
       </c>
       <c r="H1005" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
@@ -35224,7 +35588,7 @@
         <v>83029.62574360514</v>
       </c>
       <c r="H1007" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
@@ -35257,7 +35621,7 @@
         <v>82309.89799514908</v>
       </c>
       <c r="H1008" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
@@ -35290,7 +35654,7 @@
         <v>82578.37749514908</v>
       </c>
       <c r="H1009" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -35323,7 +35687,7 @@
         <v>82560.11359514907</v>
       </c>
       <c r="H1010" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
@@ -35356,7 +35720,7 @@
         <v>82660.11359514907</v>
       </c>
       <c r="H1011" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
@@ -35389,7 +35753,7 @@
         <v>82806.43529514907</v>
       </c>
       <c r="H1012" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -35422,7 +35786,7 @@
         <v>82789.63529514907</v>
       </c>
       <c r="H1013" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
@@ -35455,7 +35819,7 @@
         <v>82573.99429514907</v>
       </c>
       <c r="H1014" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
@@ -35488,7 +35852,7 @@
         <v>82879.67589514906</v>
       </c>
       <c r="H1015" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
@@ -35521,7 +35885,7 @@
         <v>82879.67589514906</v>
       </c>
       <c r="H1016" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
@@ -35554,7 +35918,7 @@
         <v>82869.66549514906</v>
       </c>
       <c r="H1017" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
@@ -35587,7 +35951,7 @@
         <v>82869.66549514906</v>
       </c>
       <c r="H1018" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
@@ -35620,7 +35984,7 @@
         <v>82918.19139514906</v>
       </c>
       <c r="H1019" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
@@ -35653,7 +36017,7 @@
         <v>81558.84649514906</v>
       </c>
       <c r="H1020" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
@@ -35686,7 +36050,7 @@
         <v>81454.56709514906</v>
       </c>
       <c r="H1021" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
@@ -36313,7 +36677,7 @@
         <v>82609.96229514905</v>
       </c>
       <c r="H1040" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
@@ -37930,7 +38294,7 @@
         <v>81634.98773857925</v>
       </c>
       <c r="H1089" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1089" t="inlineStr"/>
       <c r="J1089" t="inlineStr"/>
@@ -37963,7 +38327,7 @@
         <v>80973.26053857926</v>
       </c>
       <c r="H1090" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1090" t="inlineStr"/>
       <c r="J1090" t="inlineStr"/>
@@ -37996,7 +38360,7 @@
         <v>80973.26053857926</v>
       </c>
       <c r="H1091" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1091" t="inlineStr"/>
       <c r="J1091" t="inlineStr"/>
@@ -38062,7 +38426,7 @@
         <v>81070.26053857926</v>
       </c>
       <c r="H1093" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="inlineStr"/>
@@ -38095,7 +38459,7 @@
         <v>81188.47123857925</v>
       </c>
       <c r="H1094" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1094" t="inlineStr"/>
       <c r="J1094" t="inlineStr"/>
@@ -38128,7 +38492,7 @@
         <v>81192.17123857925</v>
       </c>
       <c r="H1095" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1095" t="inlineStr"/>
       <c r="J1095" t="inlineStr"/>
@@ -38161,7 +38525,7 @@
         <v>81203.73043857925</v>
       </c>
       <c r="H1096" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1096" t="inlineStr"/>
       <c r="J1096" t="inlineStr"/>
@@ -38194,7 +38558,7 @@
         <v>81221.88433857926</v>
       </c>
       <c r="H1097" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="inlineStr"/>
@@ -38227,7 +38591,7 @@
         <v>81185.48493857926</v>
       </c>
       <c r="H1098" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="inlineStr"/>
@@ -38260,7 +38624,7 @@
         <v>80931.70113857926</v>
       </c>
       <c r="H1099" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1099" t="inlineStr"/>
       <c r="J1099" t="inlineStr"/>
@@ -38293,7 +38657,7 @@
         <v>80752.17373857925</v>
       </c>
       <c r="H1100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="inlineStr"/>
@@ -38326,7 +38690,7 @@
         <v>81433.55861312148</v>
       </c>
       <c r="H1101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1101" t="inlineStr"/>
       <c r="J1101" t="inlineStr"/>
@@ -38359,7 +38723,7 @@
         <v>80188.22835702141</v>
       </c>
       <c r="H1102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1102" t="inlineStr"/>
       <c r="J1102" t="inlineStr"/>
@@ -38392,7 +38756,7 @@
         <v>80144.45485702141</v>
       </c>
       <c r="H1103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1103" t="inlineStr"/>
       <c r="J1103" t="inlineStr"/>
@@ -38425,7 +38789,7 @@
         <v>80139.45485702141</v>
       </c>
       <c r="H1104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1104" t="inlineStr"/>
       <c r="J1104" t="inlineStr"/>
@@ -38458,7 +38822,7 @@
         <v>79934.26425060048</v>
       </c>
       <c r="H1105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1105" t="inlineStr"/>
       <c r="J1105" t="inlineStr"/>
@@ -38491,7 +38855,7 @@
         <v>79684.60615060048</v>
       </c>
       <c r="H1106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1106" t="inlineStr"/>
       <c r="J1106" t="inlineStr"/>
@@ -38524,7 +38888,7 @@
         <v>79553.61525060047</v>
       </c>
       <c r="H1107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1107" t="inlineStr"/>
       <c r="J1107" t="inlineStr"/>
@@ -38557,7 +38921,7 @@
         <v>79888.86715060048</v>
       </c>
       <c r="H1108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1108" t="inlineStr"/>
       <c r="J1108" t="inlineStr"/>
@@ -38590,7 +38954,7 @@
         <v>79888.86715060048</v>
       </c>
       <c r="H1109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1109" t="inlineStr"/>
       <c r="J1109" t="inlineStr"/>
@@ -38623,7 +38987,7 @@
         <v>79769.19865060048</v>
       </c>
       <c r="H1110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="inlineStr"/>
@@ -38656,7 +39020,7 @@
         <v>79900.67735060048</v>
       </c>
       <c r="H1111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1111" t="inlineStr"/>
       <c r="J1111" t="inlineStr"/>
@@ -38689,7 +39053,7 @@
         <v>79844.14735060048</v>
       </c>
       <c r="H1112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1112" t="inlineStr"/>
       <c r="J1112" t="inlineStr"/>
@@ -38722,7 +39086,7 @@
         <v>79856.17325060048</v>
       </c>
       <c r="H1113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1113" t="inlineStr"/>
       <c r="J1113" t="inlineStr"/>
@@ -38755,7 +39119,7 @@
         <v>79918.25605060048</v>
       </c>
       <c r="H1114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1114" t="inlineStr"/>
       <c r="J1114" t="inlineStr"/>
@@ -38788,7 +39152,7 @@
         <v>80727.17525060049</v>
       </c>
       <c r="H1115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1115" t="inlineStr"/>
       <c r="J1115" t="inlineStr"/>
@@ -38821,7 +39185,7 @@
         <v>80727.17525060049</v>
       </c>
       <c r="H1116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1116" t="inlineStr"/>
       <c r="J1116" t="inlineStr"/>
@@ -38854,7 +39218,7 @@
         <v>80727.17525060049</v>
       </c>
       <c r="H1117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1117" t="inlineStr"/>
       <c r="J1117" t="inlineStr"/>
@@ -38887,7 +39251,7 @@
         <v>80667.66625060048</v>
       </c>
       <c r="H1118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1118" t="inlineStr"/>
       <c r="J1118" t="inlineStr"/>
@@ -38920,7 +39284,7 @@
         <v>80472.92205060048</v>
       </c>
       <c r="H1119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1119" t="inlineStr"/>
       <c r="J1119" t="inlineStr"/>
@@ -38953,7 +39317,7 @@
         <v>80444.07465060048</v>
       </c>
       <c r="H1120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1120" t="inlineStr"/>
       <c r="J1120" t="inlineStr"/>
@@ -38986,7 +39350,7 @@
         <v>80528.02095060048</v>
       </c>
       <c r="H1121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1121" t="inlineStr"/>
       <c r="J1121" t="inlineStr"/>
@@ -39019,7 +39383,7 @@
         <v>80268.53865060047</v>
       </c>
       <c r="H1122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1122" t="inlineStr"/>
       <c r="J1122" t="inlineStr"/>
@@ -39052,7 +39416,7 @@
         <v>80268.53865060047</v>
       </c>
       <c r="H1123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1123" t="inlineStr"/>
       <c r="J1123" t="inlineStr"/>
@@ -39085,7 +39449,7 @@
         <v>80056.93345060047</v>
       </c>
       <c r="H1124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1124" t="inlineStr"/>
       <c r="J1124" t="inlineStr"/>
@@ -39118,7 +39482,7 @@
         <v>79374.75425060047</v>
       </c>
       <c r="H1125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1125" t="inlineStr"/>
       <c r="J1125" t="inlineStr"/>
@@ -39151,7 +39515,7 @@
         <v>79246.24455060047</v>
       </c>
       <c r="H1126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1126" t="inlineStr"/>
       <c r="J1126" t="inlineStr"/>
@@ -39184,7 +39548,7 @@
         <v>80213.42525060047</v>
       </c>
       <c r="H1127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1127" t="inlineStr"/>
       <c r="J1127" t="inlineStr"/>
@@ -39217,7 +39581,7 @@
         <v>80310.42525060047</v>
       </c>
       <c r="H1128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1128" t="inlineStr"/>
       <c r="J1128" t="inlineStr"/>
@@ -39250,7 +39614,7 @@
         <v>80270.62425060046</v>
       </c>
       <c r="H1129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1129" t="inlineStr"/>
       <c r="J1129" t="inlineStr"/>
@@ -39283,7 +39647,7 @@
         <v>80271.74765060046</v>
       </c>
       <c r="H1130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1130" t="inlineStr"/>
       <c r="J1130" t="inlineStr"/>
@@ -39316,7 +39680,7 @@
         <v>80569.93965060046</v>
       </c>
       <c r="H1131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1131" t="inlineStr"/>
       <c r="J1131" t="inlineStr"/>
@@ -39349,7 +39713,7 @@
         <v>80564.10855060046</v>
       </c>
       <c r="H1132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1132" t="inlineStr"/>
       <c r="J1132" t="inlineStr"/>
@@ -39382,7 +39746,7 @@
         <v>82432.18251907683</v>
       </c>
       <c r="H1133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1133" t="inlineStr"/>
       <c r="J1133" t="inlineStr"/>
@@ -39415,7 +39779,7 @@
         <v>82394.35591907683</v>
       </c>
       <c r="H1134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1134" t="inlineStr"/>
       <c r="J1134" t="inlineStr"/>
@@ -39448,7 +39812,7 @@
         <v>82039.43921907683</v>
       </c>
       <c r="H1135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1135" t="inlineStr"/>
       <c r="J1135" t="inlineStr"/>
@@ -39481,7 +39845,7 @@
         <v>82032.39001907683</v>
       </c>
       <c r="H1136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1136" t="inlineStr"/>
       <c r="J1136" t="inlineStr"/>
@@ -39514,7 +39878,7 @@
         <v>82127.80241907683</v>
       </c>
       <c r="H1137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1137" t="inlineStr"/>
       <c r="J1137" t="inlineStr"/>
@@ -39547,7 +39911,7 @@
         <v>82023.35321907683</v>
       </c>
       <c r="H1138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1138" t="inlineStr"/>
       <c r="J1138" t="inlineStr"/>
@@ -39580,7 +39944,7 @@
         <v>81021.31501907684</v>
       </c>
       <c r="H1139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1139" t="inlineStr"/>
       <c r="J1139" t="inlineStr"/>
@@ -39613,7 +39977,7 @@
         <v>81021.31501907684</v>
       </c>
       <c r="H1140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1140" t="inlineStr"/>
       <c r="J1140" t="inlineStr"/>
@@ -39646,7 +40010,7 @@
         <v>80930.17501907684</v>
       </c>
       <c r="H1141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1141" t="inlineStr"/>
       <c r="J1141" t="inlineStr"/>
@@ -39679,7 +40043,7 @@
         <v>80770.17501907684</v>
       </c>
       <c r="H1142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1142" t="inlineStr"/>
       <c r="J1142" t="inlineStr"/>
@@ -39712,7 +40076,7 @@
         <v>80776.33961907684</v>
       </c>
       <c r="H1143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1143" t="inlineStr"/>
       <c r="J1143" t="inlineStr"/>
@@ -39745,7 +40109,7 @@
         <v>80660.55841907684</v>
       </c>
       <c r="H1144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1144" t="inlineStr"/>
       <c r="J1144" t="inlineStr"/>
@@ -39778,7 +40142,7 @@
         <v>80660.55841907684</v>
       </c>
       <c r="H1145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1145" t="inlineStr"/>
       <c r="J1145" t="inlineStr"/>
@@ -39811,7 +40175,7 @@
         <v>79758.62051907684</v>
       </c>
       <c r="H1146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1146" t="inlineStr"/>
       <c r="J1146" t="inlineStr"/>
@@ -39844,7 +40208,7 @@
         <v>80720.22741907684</v>
       </c>
       <c r="H1147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1147" t="inlineStr"/>
       <c r="J1147" t="inlineStr"/>
@@ -40009,7 +40373,7 @@
         <v>81834.08807832279</v>
       </c>
       <c r="H1152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1152" t="inlineStr"/>
       <c r="J1152" t="inlineStr"/>
@@ -40042,7 +40406,7 @@
         <v>81967.55287832279</v>
       </c>
       <c r="H1153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1153" t="inlineStr"/>
       <c r="J1153" t="inlineStr"/>
@@ -40075,7 +40439,7 @@
         <v>82377.3973783228</v>
       </c>
       <c r="H1154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1154" t="inlineStr"/>
       <c r="J1154" t="inlineStr"/>
@@ -40108,7 +40472,7 @@
         <v>82094.5107783228</v>
       </c>
       <c r="H1155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1155" t="inlineStr"/>
       <c r="J1155" t="inlineStr"/>
@@ -40141,7 +40505,7 @@
         <v>82424.9647783228</v>
       </c>
       <c r="H1156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1156" t="inlineStr"/>
       <c r="J1156" t="inlineStr"/>
@@ -40174,7 +40538,7 @@
         <v>82043.7370783228</v>
       </c>
       <c r="H1157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1157" t="inlineStr"/>
       <c r="J1157" t="inlineStr"/>
@@ -40207,7 +40571,7 @@
         <v>81940.7370783228</v>
       </c>
       <c r="H1158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1158" t="inlineStr"/>
       <c r="J1158" t="inlineStr"/>
@@ -40240,7 +40604,7 @@
         <v>82206.7975783228</v>
       </c>
       <c r="H1159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1159" t="inlineStr"/>
       <c r="J1159" t="inlineStr"/>
@@ -40273,7 +40637,7 @@
         <v>82449.9740783228</v>
       </c>
       <c r="H1160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1160" t="inlineStr"/>
       <c r="J1160" t="inlineStr"/>
@@ -40306,7 +40670,7 @@
         <v>84398.41321150733</v>
       </c>
       <c r="H1161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1161" t="inlineStr"/>
       <c r="J1161" t="inlineStr"/>
@@ -40339,7 +40703,7 @@
         <v>84140.82311150733</v>
       </c>
       <c r="H1162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1162" t="inlineStr"/>
       <c r="J1162" t="inlineStr"/>
@@ -40372,7 +40736,7 @@
         <v>84002.07501150733</v>
       </c>
       <c r="H1163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1163" t="inlineStr"/>
       <c r="J1163" t="inlineStr"/>
@@ -40405,7 +40769,7 @@
         <v>83562.12751150734</v>
       </c>
       <c r="H1164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1164" t="inlineStr"/>
       <c r="J1164" t="inlineStr"/>
@@ -40438,7 +40802,7 @@
         <v>84137.23711150733</v>
       </c>
       <c r="H1165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1165" t="inlineStr"/>
       <c r="J1165" t="inlineStr"/>
@@ -40471,7 +40835,7 @@
         <v>84092.80561150733</v>
       </c>
       <c r="H1166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1166" t="inlineStr"/>
       <c r="J1166" t="inlineStr"/>
@@ -40504,7 +40868,7 @@
         <v>83670.45351150732</v>
       </c>
       <c r="H1167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1167" t="inlineStr"/>
       <c r="J1167" t="inlineStr"/>
@@ -40537,7 +40901,7 @@
         <v>82799.81211150733</v>
       </c>
       <c r="H1168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1168" t="inlineStr"/>
       <c r="J1168" t="inlineStr"/>
@@ -40570,7 +40934,7 @@
         <v>82799.81211150733</v>
       </c>
       <c r="H1169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1169" t="inlineStr"/>
       <c r="J1169" t="inlineStr"/>
